--- a/Document/分数统计.xlsx
+++ b/Document/分数统计.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>单步均值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,10 @@
   </si>
   <si>
     <t>二星分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这关太容易了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,22 +438,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:U71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="17" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="17" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
+      <selection pane="bottomRight" activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="10" max="11" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="11" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="9" collapsed="1"/>
-    <col min="13" max="13" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="9" collapsed="1"/>
-    <col min="15" max="15" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="16" max="16" width="9" collapsed="1"/>
   </cols>
   <sheetData>
@@ -515,7 +519,7 @@
         <v>71150</v>
       </c>
       <c r="U7">
-        <f>T7/S7</f>
+        <f t="shared" ref="U7:U12" si="0">T7/S7</f>
         <v>1423</v>
       </c>
     </row>
@@ -527,7 +531,7 @@
         <v>18000</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D11" si="0">C8/B8</f>
+        <f t="shared" ref="D8:D11" si="1">C8/B8</f>
         <v>360</v>
       </c>
       <c r="S8">
@@ -537,7 +541,7 @@
         <v>55300</v>
       </c>
       <c r="U8">
-        <f>T8/S8</f>
+        <f t="shared" si="0"/>
         <v>1106</v>
       </c>
     </row>
@@ -549,7 +553,7 @@
         <v>32300</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>646</v>
       </c>
       <c r="S9">
@@ -559,7 +563,7 @@
         <v>44500</v>
       </c>
       <c r="U9">
-        <f>T9/S9</f>
+        <f t="shared" si="0"/>
         <v>890</v>
       </c>
     </row>
@@ -571,7 +575,7 @@
         <v>33400</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>668</v>
       </c>
       <c r="S10">
@@ -581,7 +585,7 @@
         <v>31150</v>
       </c>
       <c r="U10">
-        <f>T10/S10</f>
+        <f t="shared" si="0"/>
         <v>623</v>
       </c>
     </row>
@@ -593,7 +597,7 @@
         <v>32050</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>641</v>
       </c>
       <c r="S11">
@@ -603,7 +607,7 @@
         <v>19640</v>
       </c>
       <c r="U11">
-        <f>T11/S11</f>
+        <f t="shared" si="0"/>
         <v>392.8</v>
       </c>
     </row>
@@ -619,7 +623,7 @@
         <v>29100</v>
       </c>
       <c r="U12">
-        <f>T12/S12</f>
+        <f t="shared" si="0"/>
         <v>582</v>
       </c>
     </row>
@@ -757,35 +761,35 @@
         <v>25</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:H38" si="1">B19*$B$17</f>
+        <f t="shared" ref="H19:H38" si="2">B19*$B$17</f>
         <v>31907.999999999996</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <f t="shared" ref="J19:J38" si="2">H19*I19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
+        <f t="shared" ref="J19:J38" si="3">H19*I19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
         <v>41908</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <f t="shared" ref="L19:L38" si="3">H19*I19*K19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
+        <f t="shared" ref="L19:L38" si="4">H19*I19*K19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
         <v>41908</v>
       </c>
       <c r="M19">
         <v>1.5</v>
       </c>
       <c r="N19">
-        <f t="shared" ref="N19:N38" si="4">H19*I19*M19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
+        <f t="shared" ref="N19:N38" si="5">H19*I19*M19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
         <v>57861.999999999993</v>
       </c>
       <c r="O19">
         <v>2</v>
       </c>
       <c r="P19">
-        <f t="shared" ref="P19:P38" si="5">H19*I19*O19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
+        <f t="shared" ref="P19:P38" si="6">H19*I19*O19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
         <v>73816</v>
       </c>
     </row>
@@ -800,35 +804,35 @@
         <v>16</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7976.9999999999991</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
-        <v>11177</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
         <f t="shared" si="3"/>
         <v>11177</v>
       </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>11177</v>
+      </c>
       <c r="M20">
         <v>1.5</v>
       </c>
       <c r="N20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15165.499999999998</v>
       </c>
       <c r="O20">
         <v>2</v>
       </c>
       <c r="P20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19154</v>
       </c>
     </row>
@@ -843,35 +847,35 @@
         <v>32</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7976.9999999999991</v>
       </c>
       <c r="I21">
         <v>0.6</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
-        <v>11186.199999999999</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
         <f t="shared" si="3"/>
         <v>11186.199999999999</v>
       </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>11186.199999999999</v>
+      </c>
       <c r="M21">
         <v>1.5</v>
       </c>
       <c r="N21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13579.3</v>
       </c>
       <c r="O21">
         <v>2</v>
       </c>
       <c r="P21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15972.399999999998</v>
       </c>
     </row>
@@ -886,35 +890,35 @@
         <v>8</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19144.8</v>
       </c>
       <c r="I22">
         <v>0.5</v>
       </c>
       <c r="J22">
-        <f t="shared" si="2"/>
-        <v>17572.400000000001</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
         <f t="shared" si="3"/>
         <v>17572.400000000001</v>
       </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>17572.400000000001</v>
+      </c>
       <c r="M22">
         <v>1.5</v>
       </c>
       <c r="N22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22358.6</v>
       </c>
       <c r="O22">
         <v>2</v>
       </c>
       <c r="P22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27144.799999999999</v>
       </c>
     </row>
@@ -929,35 +933,35 @@
         <v>130</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31907.999999999996</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
-        <v>57908</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
         <f t="shared" si="3"/>
         <v>57908</v>
       </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>57908</v>
+      </c>
       <c r="M23">
         <v>1.5</v>
       </c>
       <c r="N23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>73862</v>
       </c>
       <c r="O23">
         <v>2</v>
       </c>
       <c r="P23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>89816</v>
       </c>
     </row>
@@ -975,35 +979,35 @@
         <v>9</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15953.999999999998</v>
       </c>
       <c r="I24">
         <v>1.1000000000000001</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
-        <v>24749.399999999998</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
         <f t="shared" si="3"/>
         <v>24749.399999999998</v>
       </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>24749.399999999998</v>
+      </c>
       <c r="M24">
         <v>1.5</v>
       </c>
       <c r="N24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33524.1</v>
       </c>
       <c r="O24">
         <v>2</v>
       </c>
       <c r="P24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42298.799999999996</v>
       </c>
     </row>
@@ -1024,35 +1028,35 @@
         <v>10</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26589.999999999996</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <f t="shared" si="2"/>
-        <v>46590</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
         <f t="shared" si="3"/>
         <v>46590</v>
       </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>46590</v>
+      </c>
       <c r="M25">
         <v>1.5</v>
       </c>
       <c r="N25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59884.999999999993</v>
       </c>
       <c r="O25">
         <v>2</v>
       </c>
       <c r="P25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>73180</v>
       </c>
     </row>
@@ -1067,35 +1071,35 @@
         <v>36</v>
       </c>
       <c r="H26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23930.999999999996</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <f t="shared" si="2"/>
-        <v>31130.999999999996</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
         <f t="shared" si="3"/>
         <v>31130.999999999996</v>
       </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>31130.999999999996</v>
+      </c>
       <c r="M26">
         <v>1.5</v>
       </c>
       <c r="N26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43096.499999999993</v>
       </c>
       <c r="O26">
         <v>2</v>
       </c>
       <c r="P26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55061.999999999993</v>
       </c>
     </row>
@@ -1113,35 +1117,35 @@
         <v>9</v>
       </c>
       <c r="H27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29248.999999999996</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <f t="shared" si="2"/>
-        <v>36849</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
         <f t="shared" si="3"/>
         <v>36849</v>
       </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>36849</v>
+      </c>
       <c r="M27">
         <v>1.5</v>
       </c>
       <c r="N27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51473.499999999993</v>
       </c>
       <c r="O27">
         <v>2</v>
       </c>
       <c r="P27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66098</v>
       </c>
     </row>
@@ -1156,35 +1160,35 @@
         <v>45</v>
       </c>
       <c r="H28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15953.999999999998</v>
       </c>
       <c r="I28">
         <v>0.7</v>
       </c>
       <c r="J28">
-        <f t="shared" si="2"/>
-        <v>20167.799999999996</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
         <f t="shared" si="3"/>
         <v>20167.799999999996</v>
       </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>20167.799999999996</v>
+      </c>
       <c r="M28">
         <v>1.5</v>
       </c>
       <c r="N28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25751.699999999997</v>
       </c>
       <c r="O28">
         <v>2</v>
       </c>
       <c r="P28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>31335.599999999995</v>
       </c>
     </row>
@@ -1202,35 +1206,35 @@
         <v>13</v>
       </c>
       <c r="H29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26589.999999999996</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <f t="shared" si="2"/>
-        <v>43390</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
         <f t="shared" si="3"/>
         <v>43390</v>
       </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>43390</v>
+      </c>
       <c r="M29">
         <v>1.5</v>
       </c>
       <c r="N29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56684.999999999993</v>
       </c>
       <c r="O29">
         <v>2</v>
       </c>
       <c r="P29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>69980</v>
       </c>
     </row>
@@ -1248,35 +1252,35 @@
         <v>18</v>
       </c>
       <c r="H30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26589.999999999996</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <f t="shared" si="2"/>
-        <v>37790</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
         <f t="shared" si="3"/>
         <v>37790</v>
       </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>37790</v>
+      </c>
       <c r="M30">
         <v>1.5</v>
       </c>
       <c r="N30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51084.999999999993</v>
       </c>
       <c r="O30">
         <v>2</v>
       </c>
       <c r="P30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64379.999999999993</v>
       </c>
     </row>
@@ -1291,35 +1295,35 @@
         <v>9</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26589.999999999996</v>
       </c>
       <c r="I31">
         <v>0.8</v>
       </c>
       <c r="J31">
-        <f t="shared" si="2"/>
-        <v>24872</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
         <f t="shared" si="3"/>
         <v>24872</v>
       </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>24872</v>
+      </c>
       <c r="M31">
         <v>1.5</v>
       </c>
       <c r="N31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35508</v>
       </c>
       <c r="O31">
         <v>2</v>
       </c>
       <c r="P31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46144</v>
       </c>
     </row>
@@ -1337,39 +1341,39 @@
         <v>18</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26589.999999999996</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <f t="shared" si="2"/>
-        <v>58990</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
         <f t="shared" si="3"/>
         <v>58990</v>
       </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="4"/>
+        <v>58990</v>
+      </c>
       <c r="M32">
         <v>1.5</v>
       </c>
       <c r="N32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>72285</v>
       </c>
       <c r="O32">
         <v>2</v>
       </c>
       <c r="P32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>85580</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>45</v>
       </c>
@@ -1380,39 +1384,39 @@
         <v>24</v>
       </c>
       <c r="H33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21272</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33">
-        <f t="shared" si="2"/>
-        <v>30872</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
         <f t="shared" si="3"/>
         <v>30872</v>
       </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="4"/>
+        <v>30872</v>
+      </c>
       <c r="M33">
         <v>1.5</v>
       </c>
       <c r="N33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41508</v>
       </c>
       <c r="O33">
         <v>2</v>
       </c>
       <c r="P33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52144</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>46</v>
       </c>
@@ -1426,39 +1430,39 @@
         <v>7</v>
       </c>
       <c r="H34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18613</v>
       </c>
       <c r="I34">
         <v>9</v>
       </c>
       <c r="J34">
-        <f t="shared" si="2"/>
-        <v>177917</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
         <f t="shared" si="3"/>
         <v>177917</v>
       </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>177917</v>
+      </c>
       <c r="M34">
         <v>1.5</v>
       </c>
       <c r="N34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>261675.5</v>
       </c>
       <c r="O34">
         <v>2</v>
       </c>
       <c r="P34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>345434</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>47</v>
       </c>
@@ -1475,39 +1479,39 @@
         <v>16</v>
       </c>
       <c r="H35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15953.999999999998</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <f t="shared" si="2"/>
-        <v>26354</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
         <f t="shared" si="3"/>
         <v>26354</v>
       </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="4"/>
+        <v>26354</v>
+      </c>
       <c r="M35">
         <v>1.5</v>
       </c>
       <c r="N35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34331</v>
       </c>
       <c r="O35">
         <v>2</v>
       </c>
       <c r="P35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42308</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>48</v>
       </c>
@@ -1521,104 +1525,1481 @@
         <v>20</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26589.999999999996</v>
       </c>
       <c r="I36">
         <v>0.9</v>
       </c>
       <c r="J36">
-        <f t="shared" si="2"/>
-        <v>43931</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
         <f t="shared" si="3"/>
         <v>43931</v>
       </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="4"/>
+        <v>43931</v>
+      </c>
       <c r="M36">
         <v>1.5</v>
       </c>
       <c r="N36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55896.499999999993</v>
       </c>
       <c r="O36">
         <v>2</v>
       </c>
       <c r="P36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67862</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>49</v>
+      </c>
+      <c r="B37">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>16</v>
+      </c>
       <c r="H37">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="H37:H60" si="7">B37*$B$17</f>
+        <v>26589.999999999996</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="J37">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="J37:J60" si="8">H37*I37+C37*$C$17+D37*$D$17+E37*$E$17+F37*$F$17+G37*$G$17</f>
+        <v>25553.999999999996</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="L37:L60" si="9">H37*I37*K37+C37*$C$17+D37*$D$17+E37*$E$17+F37*$F$17+G37*$G$17</f>
+        <v>25553.999999999996</v>
       </c>
       <c r="M37">
         <v>1.5</v>
       </c>
       <c r="N37">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="N37:N60" si="10">H37*I37*M37+C37*$C$17+D37*$D$17+E37*$E$17+F37*$F$17+G37*$G$17</f>
+        <v>33530.999999999993</v>
       </c>
       <c r="O37">
         <v>2</v>
       </c>
       <c r="P37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+        <f t="shared" ref="P37:P60" si="11">H37*I37*O37+C37*$C$17+D37*$D$17+E37*$E$17+F37*$F$17+G37*$G$17</f>
+        <v>41507.999999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>50</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>32</v>
+      </c>
+      <c r="G38">
+        <v>16</v>
+      </c>
       <c r="H38">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>26589.999999999996</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>47790</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="L38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>47790</v>
       </c>
       <c r="M38">
         <v>1.5</v>
       </c>
       <c r="N38">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>61084.999999999993</v>
       </c>
       <c r="O38">
         <v>2</v>
       </c>
       <c r="P38">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>74380</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>51</v>
+      </c>
+      <c r="B39">
+        <v>35</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="G39">
+        <v>22</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="7"/>
+        <v>18613</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="8"/>
+        <v>31413</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="9"/>
+        <v>31413</v>
+      </c>
+      <c r="M39">
+        <v>1.5</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="10"/>
+        <v>40719.5</v>
+      </c>
+      <c r="O39">
+        <v>2</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="11"/>
+        <v>50026</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>52</v>
+      </c>
+      <c r="B40">
+        <v>50</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <v>9</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="7"/>
+        <v>26589.999999999996</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="8"/>
+        <v>35590</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="9"/>
+        <v>35590</v>
+      </c>
+      <c r="M40">
+        <v>1.5</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="10"/>
+        <v>48884.999999999993</v>
+      </c>
+      <c r="O40">
+        <v>2</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="11"/>
+        <v>62179.999999999993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>53</v>
+      </c>
+      <c r="B41">
+        <v>50</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="7"/>
+        <v>26589.999999999996</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="8"/>
+        <v>32189.999999999996</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="9"/>
+        <v>32189.999999999996</v>
+      </c>
+      <c r="M41">
+        <v>1.5</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="10"/>
+        <v>45484.999999999993</v>
+      </c>
+      <c r="O41">
+        <v>2</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="11"/>
+        <v>58779.999999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>54</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>14</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="7"/>
+        <v>21272</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="8"/>
+        <v>30872</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="9"/>
+        <v>30872</v>
+      </c>
+      <c r="M42">
+        <v>1.5</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="10"/>
+        <v>41508</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="11"/>
+        <v>52144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>24</v>
+      </c>
+      <c r="G43">
+        <v>51</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="7"/>
+        <v>7976.9999999999991</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="8"/>
+        <v>46954</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="9"/>
+        <v>46954</v>
+      </c>
+      <c r="M43">
+        <v>1.5</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="10"/>
+        <v>54931</v>
+      </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="11"/>
+        <v>62908</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>56</v>
+      </c>
+      <c r="B44">
+        <v>45</v>
+      </c>
+      <c r="C44">
+        <v>36</v>
+      </c>
+      <c r="E44">
+        <v>26</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="7"/>
+        <v>23930.999999999996</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="8"/>
+        <v>41531</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="9"/>
+        <v>41531</v>
+      </c>
+      <c r="M44">
+        <v>1.5</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="10"/>
+        <v>53496.499999999993</v>
+      </c>
+      <c r="O44">
+        <v>2</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="11"/>
+        <v>65461.999999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>57</v>
+      </c>
+      <c r="B45">
+        <v>20</v>
+      </c>
+      <c r="G45">
+        <v>7</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="7"/>
+        <v>10636</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="8"/>
+        <v>13436</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="9"/>
+        <v>13436</v>
+      </c>
+      <c r="M45">
+        <v>1.5</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="10"/>
+        <v>18754</v>
+      </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="11"/>
+        <v>24072</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>58</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>24</v>
+      </c>
+      <c r="G46">
+        <v>12</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="7"/>
+        <v>10636</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="8"/>
+        <v>20236</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="9"/>
+        <v>20236</v>
+      </c>
+      <c r="M46">
+        <v>1.5</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="10"/>
+        <v>25554</v>
+      </c>
+      <c r="O46">
+        <v>2</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="11"/>
+        <v>30872</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>59</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>45000</v>
+      </c>
+      <c r="M47">
+        <v>1.5</v>
+      </c>
+      <c r="N47">
+        <v>60000</v>
+      </c>
+      <c r="O47">
+        <v>2</v>
+      </c>
+      <c r="P47">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>60</v>
+      </c>
+      <c r="B48">
+        <v>50</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>12</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="7"/>
+        <v>26589.999999999996</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="8"/>
+        <v>35390</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="9"/>
+        <v>35390</v>
+      </c>
+      <c r="M48">
+        <v>1.5</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="10"/>
+        <v>48684.999999999993</v>
+      </c>
+      <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="11"/>
+        <v>61979.999999999993</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>61</v>
+      </c>
+      <c r="B49">
+        <v>50</v>
+      </c>
+      <c r="C49">
+        <v>30</v>
+      </c>
+      <c r="E49">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>15</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="7"/>
+        <v>26589.999999999996</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="8"/>
+        <v>42190</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="9"/>
+        <v>42190</v>
+      </c>
+      <c r="M49">
+        <v>1.5</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="10"/>
+        <v>55484.999999999993</v>
+      </c>
+      <c r="O49">
+        <v>2</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="11"/>
+        <v>68780</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>62</v>
+      </c>
+      <c r="B50">
+        <v>21</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>18</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="7"/>
+        <v>11167.8</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="8"/>
+        <v>23367.8</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="9"/>
+        <v>23367.8</v>
+      </c>
+      <c r="M50">
+        <v>1.5</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="10"/>
+        <v>28951.699999999997</v>
+      </c>
+      <c r="O50">
+        <v>2</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="11"/>
+        <v>34535.599999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>63</v>
+      </c>
+      <c r="B51">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="7"/>
+        <v>10636</v>
+      </c>
+      <c r="I51">
+        <v>1.2</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="8"/>
+        <v>14363.199999999999</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="9"/>
+        <v>14363.199999999999</v>
+      </c>
+      <c r="M51">
+        <v>1.5</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="10"/>
+        <v>20744.8</v>
+      </c>
+      <c r="O51">
+        <v>2</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="11"/>
+        <v>27126.399999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>64</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>45000</v>
+      </c>
+      <c r="M52">
+        <v>1.5</v>
+      </c>
+      <c r="N52">
+        <v>55000</v>
+      </c>
+      <c r="O52">
+        <v>2</v>
+      </c>
+      <c r="P52">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>65</v>
+      </c>
+      <c r="B53">
+        <v>50</v>
+      </c>
+      <c r="C53">
+        <v>136</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="7"/>
+        <v>26589.999999999996</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="8"/>
+        <v>56190</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="9"/>
+        <v>56190</v>
+      </c>
+      <c r="M53">
+        <v>1.5</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="10"/>
+        <v>69485</v>
+      </c>
+      <c r="O53">
+        <v>2</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="11"/>
+        <v>82780</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>66</v>
+      </c>
+      <c r="B54">
+        <v>40</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="7"/>
+        <v>21272</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="8"/>
+        <v>25272</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="9"/>
+        <v>25272</v>
+      </c>
+      <c r="M54">
+        <v>1.5</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="10"/>
+        <v>35908</v>
+      </c>
+      <c r="O54">
+        <v>2</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="11"/>
+        <v>46544</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>67</v>
+      </c>
+      <c r="B55">
+        <v>25</v>
+      </c>
+      <c r="C55">
+        <v>12</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="7"/>
+        <v>13294.999999999998</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="8"/>
+        <v>17695</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="9"/>
+        <v>17695</v>
+      </c>
+      <c r="M55">
+        <v>1.5</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="10"/>
+        <v>24342.499999999996</v>
+      </c>
+      <c r="O55">
+        <v>2</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="11"/>
+        <v>30989.999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>68</v>
+      </c>
+      <c r="B56">
+        <v>25</v>
+      </c>
+      <c r="C56">
+        <v>112</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="7"/>
+        <v>13294.999999999998</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="8"/>
+        <v>38095</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="9"/>
+        <v>38095</v>
+      </c>
+      <c r="M56">
+        <v>1.5</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="10"/>
+        <v>44742.5</v>
+      </c>
+      <c r="O56">
+        <v>2</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="11"/>
+        <v>51390</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>69</v>
+      </c>
+      <c r="B57">
+        <v>30</v>
+      </c>
+      <c r="C57">
+        <v>26</v>
+      </c>
+      <c r="G57">
+        <v>13</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="7"/>
+        <v>15953.999999999998</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="8"/>
+        <v>26354</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="9"/>
+        <v>26354</v>
+      </c>
+      <c r="M57">
+        <v>1.5</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="10"/>
+        <v>34331</v>
+      </c>
+      <c r="O57">
+        <v>2</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="11"/>
+        <v>42308</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>70</v>
+      </c>
+      <c r="B58">
+        <v>45</v>
+      </c>
+      <c r="C58">
+        <v>56</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="7"/>
+        <v>23930.999999999996</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="8"/>
+        <v>36731</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="9"/>
+        <v>36731</v>
+      </c>
+      <c r="M58">
+        <v>1.5</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="10"/>
+        <v>48696.499999999993</v>
+      </c>
+      <c r="O58">
+        <v>2</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="11"/>
+        <v>60661.999999999993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>71</v>
+      </c>
+      <c r="B59">
+        <v>35</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="7"/>
+        <v>18613</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="8"/>
+        <v>23813</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="9"/>
+        <v>23813</v>
+      </c>
+      <c r="M59">
+        <v>1.5</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="10"/>
+        <v>33119.5</v>
+      </c>
+      <c r="O59">
+        <v>2</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="11"/>
+        <v>42426</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>72</v>
+      </c>
+      <c r="B60">
+        <v>45</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>19</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="7"/>
+        <v>23930.999999999996</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="8"/>
+        <v>32730.999999999996</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="9"/>
+        <v>32730.999999999996</v>
+      </c>
+      <c r="M60">
+        <v>1.5</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="10"/>
+        <v>44696.499999999993</v>
+      </c>
+      <c r="O60">
+        <v>2</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="11"/>
+        <v>56661.999999999993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>73</v>
+      </c>
+      <c r="B61">
+        <v>30</v>
+      </c>
+      <c r="C61">
+        <v>28</v>
+      </c>
+      <c r="H61">
+        <f t="shared" ref="H61:H68" si="12">B61*$B$17</f>
+        <v>15953.999999999998</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <f t="shared" ref="J61:J68" si="13">H61*I61+C61*$C$17+D61*$D$17+E61*$E$17+F61*$F$17+G61*$G$17</f>
+        <v>21554</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <f t="shared" ref="L61:L68" si="14">H61*I61*K61+C61*$C$17+D61*$D$17+E61*$E$17+F61*$F$17+G61*$G$17</f>
+        <v>21554</v>
+      </c>
+      <c r="M61">
+        <v>1.5</v>
+      </c>
+      <c r="N61">
+        <f t="shared" ref="N61:N68" si="15">H61*I61*M61+C61*$C$17+D61*$D$17+E61*$E$17+F61*$F$17+G61*$G$17</f>
+        <v>29530.999999999996</v>
+      </c>
+      <c r="O61">
+        <v>2</v>
+      </c>
+      <c r="P61">
+        <f t="shared" ref="P61:P68" si="16">H61*I61*O61+C61*$C$17+D61*$D$17+E61*$E$17+F61*$F$17+G61*$G$17</f>
+        <v>37508</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>74</v>
+      </c>
+      <c r="B62">
+        <v>35</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>8</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="12"/>
+        <v>18613</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="13"/>
+        <v>31813</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="14"/>
+        <v>31813</v>
+      </c>
+      <c r="M62">
+        <v>1.5</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="15"/>
+        <v>41119.5</v>
+      </c>
+      <c r="O62">
+        <v>2</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="16"/>
+        <v>50426</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>75</v>
+      </c>
+      <c r="B63">
+        <v>30</v>
+      </c>
+      <c r="C63">
+        <v>135</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="12"/>
+        <v>15953.999999999998</v>
+      </c>
+      <c r="I63">
+        <v>1.2</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="13"/>
+        <v>46144.799999999996</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="14"/>
+        <v>46144.799999999996</v>
+      </c>
+      <c r="M63">
+        <v>1.5</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="15"/>
+        <v>55717.2</v>
+      </c>
+      <c r="O63">
+        <v>2</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="16"/>
+        <v>65289.599999999991</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>76</v>
+      </c>
+      <c r="B64">
+        <v>33</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="12"/>
+        <v>17549.399999999998</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="13"/>
+        <v>20549.399999999998</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="14"/>
+        <v>20549.399999999998</v>
+      </c>
+      <c r="M64">
+        <v>1.5</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="15"/>
+        <v>29324.1</v>
+      </c>
+      <c r="O64">
+        <v>2</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="16"/>
+        <v>38098.799999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>77</v>
+      </c>
+      <c r="B65">
+        <v>50</v>
+      </c>
+      <c r="C65">
+        <v>18</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="12"/>
+        <v>26589.999999999996</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="13"/>
+        <v>30189.999999999996</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="14"/>
+        <v>30189.999999999996</v>
+      </c>
+      <c r="M65">
+        <v>1.5</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="15"/>
+        <v>43484.999999999993</v>
+      </c>
+      <c r="O65">
+        <v>2</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="16"/>
+        <v>56779.999999999993</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>78</v>
+      </c>
+      <c r="B66">
+        <v>50</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="12"/>
+        <v>26589.999999999996</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="13"/>
+        <v>30589.999999999996</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="14"/>
+        <v>30589.999999999996</v>
+      </c>
+      <c r="M66">
+        <v>1.5</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="15"/>
+        <v>43884.999999999993</v>
+      </c>
+      <c r="O66">
+        <v>2</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="16"/>
+        <v>57179.999999999993</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>79</v>
+      </c>
+      <c r="B67">
+        <v>50</v>
+      </c>
+      <c r="C67">
+        <v>78</v>
+      </c>
+      <c r="E67">
+        <v>8</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="12"/>
+        <v>26589.999999999996</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="13"/>
+        <v>46590</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="14"/>
+        <v>46590</v>
+      </c>
+      <c r="M67">
+        <v>1.5</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="15"/>
+        <v>59884.999999999993</v>
+      </c>
+      <c r="O67">
+        <v>2</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="16"/>
+        <v>73180</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>80</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>25000</v>
+      </c>
+      <c r="M68">
+        <v>1.5</v>
+      </c>
+      <c r="N68">
+        <v>37500</v>
+      </c>
+      <c r="O68">
+        <v>2</v>
+      </c>
+      <c r="P68">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1712,7 +3093,7 @@
         <v>71150</v>
       </c>
       <c r="U7">
-        <f>T7/S7</f>
+        <f t="shared" ref="U7:U12" si="0">T7/S7</f>
         <v>1423</v>
       </c>
     </row>
@@ -1724,7 +3105,7 @@
         <v>18000</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D11" si="0">C8/B8</f>
+        <f t="shared" ref="D8:D11" si="1">C8/B8</f>
         <v>360</v>
       </c>
       <c r="S8">
@@ -1734,7 +3115,7 @@
         <v>55300</v>
       </c>
       <c r="U8">
-        <f>T8/S8</f>
+        <f t="shared" si="0"/>
         <v>1106</v>
       </c>
     </row>
@@ -1746,7 +3127,7 @@
         <v>32300</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>646</v>
       </c>
       <c r="S9">
@@ -1756,7 +3137,7 @@
         <v>44500</v>
       </c>
       <c r="U9">
-        <f>T9/S9</f>
+        <f t="shared" si="0"/>
         <v>890</v>
       </c>
     </row>
@@ -1768,7 +3149,7 @@
         <v>33400</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>668</v>
       </c>
       <c r="S10">
@@ -1778,7 +3159,7 @@
         <v>31150</v>
       </c>
       <c r="U10">
-        <f>T10/S10</f>
+        <f t="shared" si="0"/>
         <v>623</v>
       </c>
     </row>
@@ -1790,7 +3171,7 @@
         <v>32050</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>641</v>
       </c>
       <c r="S11">
@@ -1800,7 +3181,7 @@
         <v>19640</v>
       </c>
       <c r="U11">
-        <f>T11/S11</f>
+        <f t="shared" si="0"/>
         <v>392.8</v>
       </c>
     </row>
@@ -1816,7 +3197,7 @@
         <v>29100</v>
       </c>
       <c r="U12">
-        <f>T12/S12</f>
+        <f t="shared" si="0"/>
         <v>582</v>
       </c>
     </row>
@@ -1960,681 +3341,681 @@
         <v>16</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:H38" si="1">B19*$B$17</f>
+        <f t="shared" ref="H19:H38" si="2">B19*$B$17</f>
         <v>14214.266666666666</v>
       </c>
       <c r="I19">
         <v>0.5</v>
       </c>
       <c r="J19">
-        <f t="shared" ref="J19:J38" si="2">H19*I19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
+        <f t="shared" ref="J19:J38" si="3">H19*I19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
         <v>21507.133333333331</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <f t="shared" ref="L19:L38" si="3">H19*I19*K19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
+        <f t="shared" ref="L19:L38" si="4">H19*I19*K19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
         <v>21507.133333333331</v>
       </c>
       <c r="M19">
         <v>1.5</v>
       </c>
       <c r="N19">
-        <f t="shared" ref="N19:N38" si="4">H19*I19*M19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
+        <f t="shared" ref="N19:N38" si="5">H19*I19*M19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
         <v>25060.7</v>
       </c>
       <c r="O19">
         <v>2</v>
       </c>
       <c r="P19">
-        <f t="shared" ref="P19:P38" si="5">H19*I19*O19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
+        <f t="shared" ref="P19:P38" si="6">H19*I19*O19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
         <v>28614.266666666666</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M20">
         <v>1.5</v>
       </c>
       <c r="N20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O20">
         <v>2</v>
       </c>
       <c r="P20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M21">
         <v>1.5</v>
       </c>
       <c r="N21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O21">
         <v>2</v>
       </c>
       <c r="P21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M22">
         <v>1.5</v>
       </c>
       <c r="N22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O22">
         <v>2</v>
       </c>
       <c r="P22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M23">
         <v>1.5</v>
       </c>
       <c r="N23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O23">
         <v>2</v>
       </c>
       <c r="P23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M24">
         <v>1.5</v>
       </c>
       <c r="N24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O24">
         <v>2</v>
       </c>
       <c r="P24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M25">
         <v>1.5</v>
       </c>
       <c r="N25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O25">
         <v>2</v>
       </c>
       <c r="P25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M26">
         <v>1.5</v>
       </c>
       <c r="N26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O26">
         <v>2</v>
       </c>
       <c r="P26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M27">
         <v>1.5</v>
       </c>
       <c r="N27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O27">
         <v>2</v>
       </c>
       <c r="P27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M28">
         <v>1.5</v>
       </c>
       <c r="N28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O28">
         <v>2</v>
       </c>
       <c r="P28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M29">
         <v>1.5</v>
       </c>
       <c r="N29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O29">
         <v>2</v>
       </c>
       <c r="P29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M30">
         <v>1.5</v>
       </c>
       <c r="N30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O30">
         <v>2</v>
       </c>
       <c r="P30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M31">
         <v>1.5</v>
       </c>
       <c r="N31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O31">
         <v>2</v>
       </c>
       <c r="P31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M32">
         <v>1.5</v>
       </c>
       <c r="N32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O32">
         <v>2</v>
       </c>
       <c r="P32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M33">
         <v>1.5</v>
       </c>
       <c r="N33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O33">
         <v>2</v>
       </c>
       <c r="P33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M34">
         <v>1.5</v>
       </c>
       <c r="N34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O34">
         <v>2</v>
       </c>
       <c r="P34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M35">
         <v>1.5</v>
       </c>
       <c r="N35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O35">
         <v>2</v>
       </c>
       <c r="P35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M36">
         <v>1.5</v>
       </c>
       <c r="N36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O36">
         <v>2</v>
       </c>
       <c r="P36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M37">
         <v>1.5</v>
       </c>
       <c r="N37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O37">
         <v>2</v>
       </c>
       <c r="P37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="L38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M38">
         <v>1.5</v>
       </c>
       <c r="N38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O38">
         <v>2</v>
       </c>
       <c r="P38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>

--- a/Document/分数统计.xlsx
+++ b/Document/分数统计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\快盘\JellyCraft\CapsUnity\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\kuaipan\JellyCraft\CapsUnity\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -441,10 +441,10 @@
   <dimension ref="A1:U71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="17" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="17" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="N69" sqref="N69"/>
+      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -761,35 +761,35 @@
         <v>25</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:H38" si="2">B19*$B$17</f>
+        <f t="shared" ref="H19:H36" si="2">B19*$B$17</f>
         <v>31907.999999999996</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <f t="shared" ref="J19:J38" si="3">H19*I19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
+        <f t="shared" ref="J19:J36" si="3">H19*I19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
         <v>41908</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <f t="shared" ref="L19:L38" si="4">H19*I19*K19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
+        <f t="shared" ref="L19:L36" si="4">H19*I19*K19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
         <v>41908</v>
       </c>
       <c r="M19">
         <v>1.5</v>
       </c>
       <c r="N19">
-        <f t="shared" ref="N19:N38" si="5">H19*I19*M19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
+        <f t="shared" ref="N19:N36" si="5">H19*I19*M19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
         <v>57861.999999999993</v>
       </c>
       <c r="O19">
         <v>2</v>
       </c>
       <c r="P19">
-        <f t="shared" ref="P19:P38" si="6">H19*I19*O19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
+        <f t="shared" ref="P19:P36" si="6">H19*I19*O19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
         <v>73816</v>
       </c>
     </row>
@@ -927,42 +927,42 @@
         <v>33</v>
       </c>
       <c r="B23">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C23">
         <v>130</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>31907.999999999996</v>
+        <v>26589.999999999996</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
-        <v>57908</v>
+        <v>52590</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
         <f t="shared" si="4"/>
-        <v>57908</v>
+        <v>52590</v>
       </c>
       <c r="M23">
         <v>1.5</v>
       </c>
       <c r="N23">
         <f t="shared" si="5"/>
-        <v>73862</v>
+        <v>65885</v>
       </c>
       <c r="O23">
         <v>2</v>
       </c>
       <c r="P23">
         <f t="shared" si="6"/>
-        <v>89816</v>
+        <v>79180</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
@@ -1197,7 +1197,7 @@
         <v>39</v>
       </c>
       <c r="B29">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <v>58</v>
@@ -1207,35 +1207,35 @@
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>26589.999999999996</v>
+        <v>23930.999999999996</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
         <f t="shared" si="3"/>
-        <v>43390</v>
+        <v>40731</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29">
         <f t="shared" si="4"/>
-        <v>43390</v>
+        <v>40731</v>
       </c>
       <c r="M29">
         <v>1.5</v>
       </c>
       <c r="N29">
         <f t="shared" si="5"/>
-        <v>56684.999999999993</v>
+        <v>52696.499999999993</v>
       </c>
       <c r="O29">
         <v>2</v>
       </c>
       <c r="P29">
         <f t="shared" si="6"/>
-        <v>69980</v>
+        <v>64661.999999999993</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
@@ -1562,7 +1562,7 @@
         <v>49</v>
       </c>
       <c r="B37">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C37">
         <v>16</v>
@@ -1572,35 +1572,35 @@
       </c>
       <c r="H37">
         <f t="shared" ref="H37:H60" si="7">B37*$B$17</f>
-        <v>26589.999999999996</v>
+        <v>21272</v>
       </c>
       <c r="I37">
         <v>0.6</v>
       </c>
       <c r="J37">
         <f t="shared" ref="J37:J60" si="8">H37*I37+C37*$C$17+D37*$D$17+E37*$E$17+F37*$F$17+G37*$G$17</f>
-        <v>25553.999999999996</v>
+        <v>22363.199999999997</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37">
         <f t="shared" ref="L37:L60" si="9">H37*I37*K37+C37*$C$17+D37*$D$17+E37*$E$17+F37*$F$17+G37*$G$17</f>
-        <v>25553.999999999996</v>
+        <v>22363.199999999997</v>
       </c>
       <c r="M37">
         <v>1.5</v>
       </c>
       <c r="N37">
         <f t="shared" ref="N37:N60" si="10">H37*I37*M37+C37*$C$17+D37*$D$17+E37*$E$17+F37*$F$17+G37*$G$17</f>
-        <v>33530.999999999993</v>
+        <v>28744.799999999999</v>
       </c>
       <c r="O37">
         <v>2</v>
       </c>
       <c r="P37">
         <f t="shared" ref="P37:P60" si="11">H37*I37*O37+C37*$C$17+D37*$D$17+E37*$E$17+F37*$F$17+G37*$G$17</f>
-        <v>41507.999999999993</v>
+        <v>35126.399999999994</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
@@ -1703,7 +1703,7 @@
         <v>52</v>
       </c>
       <c r="B40">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C40">
         <v>9</v>
@@ -1716,35 +1716,35 @@
       </c>
       <c r="H40">
         <f t="shared" si="7"/>
-        <v>26589.999999999996</v>
+        <v>21272</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40">
         <f t="shared" si="8"/>
-        <v>35590</v>
+        <v>30272</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="L40">
         <f t="shared" si="9"/>
-        <v>35590</v>
+        <v>30272</v>
       </c>
       <c r="M40">
         <v>1.5</v>
       </c>
       <c r="N40">
         <f t="shared" si="10"/>
-        <v>48884.999999999993</v>
+        <v>40908</v>
       </c>
       <c r="O40">
         <v>2</v>
       </c>
       <c r="P40">
         <f t="shared" si="11"/>
-        <v>62179.999999999993</v>
+        <v>51544</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
@@ -1752,7 +1752,7 @@
         <v>53</v>
       </c>
       <c r="B41">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -1762,35 +1762,35 @@
       </c>
       <c r="H41">
         <f t="shared" si="7"/>
-        <v>26589.999999999996</v>
+        <v>22335.599999999999</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41">
         <f t="shared" si="8"/>
-        <v>32189.999999999996</v>
+        <v>27935.599999999999</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="L41">
         <f t="shared" si="9"/>
-        <v>32189.999999999996</v>
+        <v>27935.599999999999</v>
       </c>
       <c r="M41">
         <v>1.5</v>
       </c>
       <c r="N41">
         <f t="shared" si="10"/>
-        <v>45484.999999999993</v>
+        <v>39103.399999999994</v>
       </c>
       <c r="O41">
         <v>2</v>
       </c>
       <c r="P41">
         <f t="shared" si="11"/>
-        <v>58779.999999999993</v>
+        <v>50271.199999999997</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
@@ -2464,7 +2464,7 @@
         <v>69</v>
       </c>
       <c r="B57">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C57">
         <v>26</v>
@@ -2474,35 +2474,35 @@
       </c>
       <c r="H57">
         <f t="shared" si="7"/>
-        <v>15953.999999999998</v>
+        <v>13294.999999999998</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57">
         <f t="shared" si="8"/>
-        <v>26354</v>
+        <v>23695</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
       <c r="L57">
         <f t="shared" si="9"/>
-        <v>26354</v>
+        <v>23695</v>
       </c>
       <c r="M57">
         <v>1.5</v>
       </c>
       <c r="N57">
         <f t="shared" si="10"/>
-        <v>34331</v>
+        <v>30342.499999999996</v>
       </c>
       <c r="O57">
         <v>2</v>
       </c>
       <c r="P57">
         <f t="shared" si="11"/>
-        <v>42308</v>
+        <v>36990</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.15">
@@ -2668,21 +2668,21 @@
         <v>1</v>
       </c>
       <c r="L61">
-        <f t="shared" ref="L61:L68" si="14">H61*I61*K61+C61*$C$17+D61*$D$17+E61*$E$17+F61*$F$17+G61*$G$17</f>
+        <f t="shared" ref="L61:L67" si="14">H61*I61*K61+C61*$C$17+D61*$D$17+E61*$E$17+F61*$F$17+G61*$G$17</f>
         <v>21554</v>
       </c>
       <c r="M61">
         <v>1.5</v>
       </c>
       <c r="N61">
-        <f t="shared" ref="N61:N68" si="15">H61*I61*M61+C61*$C$17+D61*$D$17+E61*$E$17+F61*$F$17+G61*$G$17</f>
+        <f t="shared" ref="N61:N67" si="15">H61*I61*M61+C61*$C$17+D61*$D$17+E61*$E$17+F61*$F$17+G61*$G$17</f>
         <v>29530.999999999996</v>
       </c>
       <c r="O61">
         <v>2</v>
       </c>
       <c r="P61">
-        <f t="shared" ref="P61:P68" si="16">H61*I61*O61+C61*$C$17+D61*$D$17+E61*$E$17+F61*$F$17+G61*$G$17</f>
+        <f t="shared" ref="P61:P67" si="16">H61*I61*O61+C61*$C$17+D61*$D$17+E61*$E$17+F61*$F$17+G61*$G$17</f>
         <v>37508</v>
       </c>
     </row>
@@ -2866,42 +2866,42 @@
         <v>78</v>
       </c>
       <c r="B66">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D66">
         <v>4</v>
       </c>
       <c r="H66">
         <f t="shared" si="12"/>
-        <v>26589.999999999996</v>
+        <v>21272</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66">
         <f t="shared" si="13"/>
-        <v>30589.999999999996</v>
+        <v>25272</v>
       </c>
       <c r="K66">
         <v>1</v>
       </c>
       <c r="L66">
         <f t="shared" si="14"/>
-        <v>30589.999999999996</v>
+        <v>25272</v>
       </c>
       <c r="M66">
         <v>1.5</v>
       </c>
       <c r="N66">
         <f t="shared" si="15"/>
-        <v>43884.999999999993</v>
+        <v>35908</v>
       </c>
       <c r="O66">
         <v>2</v>
       </c>
       <c r="P66">
         <f t="shared" si="16"/>
-        <v>57179.999999999993</v>
+        <v>46544</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.15">

--- a/Document/分数统计.xlsx
+++ b/Document/分数统计.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>单步均值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,10 @@
   </si>
   <si>
     <t>这关太容易了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,26 +442,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U71"/>
+  <dimension ref="A1:V325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="17" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="17" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomRight" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="10" max="11" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="9" collapsed="1"/>
-    <col min="13" max="13" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="9" collapsed="1"/>
-    <col min="15" max="15" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="9" collapsed="1"/>
+    <col min="11" max="12" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="9" collapsed="1"/>
+    <col min="14" max="14" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" collapsed="1"/>
+    <col min="16" max="16" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D1">
         <v>24</v>
       </c>
@@ -468,40 +472,40 @@
         <f>D1*E1</f>
         <v>4800</v>
       </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B2">
         <v>22</v>
       </c>
       <c r="C2">
         <v>13650</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f>(C2-$F$1)/$B$2</f>
         <v>402.27272727272725</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C3">
         <v>23700</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <f>(C3-$F$1)/$B$2</f>
         <v>859.09090909090912</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="U6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>50</v>
       </c>
@@ -512,18 +516,18 @@
         <f>C7/B7</f>
         <v>344</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>50</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>71150</v>
       </c>
-      <c r="U7">
-        <f t="shared" ref="U7:U12" si="0">T7/S7</f>
+      <c r="V7">
+        <f t="shared" ref="V7:V12" si="0">U7/T7</f>
         <v>1423</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>50</v>
       </c>
@@ -534,18 +538,18 @@
         <f t="shared" ref="D8:D11" si="1">C8/B8</f>
         <v>360</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>50</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>55300</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <f t="shared" si="0"/>
         <v>1106</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>50</v>
       </c>
@@ -556,18 +560,18 @@
         <f t="shared" si="1"/>
         <v>646</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>50</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>44500</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <f t="shared" si="0"/>
         <v>890</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>50</v>
       </c>
@@ -578,18 +582,18 @@
         <f t="shared" si="1"/>
         <v>668</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>50</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>31150</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <f t="shared" si="0"/>
         <v>623</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>50</v>
       </c>
@@ -600,40 +604,40 @@
         <f t="shared" si="1"/>
         <v>641</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>50</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>19640</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <f t="shared" si="0"/>
         <v>392.8</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D12">
         <f>AVERAGE(D7:D11)</f>
         <v>531.79999999999995</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>50</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>29100</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <f t="shared" si="0"/>
         <v>582</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U13">
-        <f>AVERAGE(U7:U12)</f>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="V13">
+        <f>AVERAGE(V7:V12)</f>
         <v>836.13333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -653,37 +657,40 @@
         <v>6</v>
       </c>
       <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
         <v>7</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>13</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>9</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>8</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>10</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>15</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>11</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>16</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>12</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B17">
         <f>D12</f>
         <v>531.79999999999995</v>
@@ -701,10 +708,13 @@
         <v>400</v>
       </c>
       <c r="G17">
+        <v>300</v>
+      </c>
+      <c r="H17">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>27</v>
       </c>
@@ -714,86 +724,86 @@
       <c r="C18">
         <v>54</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>18</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <f>B18*$B$17</f>
         <v>31907.999999999996</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
       <c r="J18">
-        <f>H18*I18+C18*$C$17+D18*$D$17+E18*$E$17+F18*$F$17+G18*$G$17</f>
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18:K68" si="2">I18*J18+C18*$C$17+D18*$D$17+E18*$E$17+F18*$F$17+G18*$G$17+H18*$H$17</f>
         <v>49908</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
       <c r="L18">
-        <f>H18*I18*K18+C18*$C$17+D18*$D$17+E18*$E$17+F18*$F$17+G18*$G$17</f>
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f>I18*J18*L18+C18*$C$17+D18*$D$17+E18*$E$17+F18*$F$17+H18*$H$17</f>
         <v>49908</v>
       </c>
-      <c r="M18">
-        <v>1.5</v>
-      </c>
       <c r="N18">
-        <f>H18*I18*M18+C18*$C$17+D18*$D$17+E18*$E$17+F18*$F$17+G18*$G$17</f>
+        <v>1.5</v>
+      </c>
+      <c r="O18">
+        <f>I18*J18*N18+C18*$C$17+D18*$D$17+E18*$E$17+F18*$F$17+H18*$H$17</f>
         <v>65862</v>
       </c>
-      <c r="O18">
-        <v>2</v>
-      </c>
       <c r="P18">
-        <f>H18*I18*O18+C18*$C$17+D18*$D$17+E18*$E$17+F18*$F$17+G18*$G$17</f>
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <f>I18*J18*P18+C18*$C$17+D18*$D$17+E18*$E$17+F18*$F$17+H18*$H$17</f>
         <v>81816</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>28</v>
       </c>
       <c r="B19">
         <v>60</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>25</v>
       </c>
-      <c r="H19">
-        <f t="shared" ref="H19:H36" si="2">B19*$B$17</f>
+      <c r="I19">
+        <f t="shared" ref="I19:I36" si="3">B19*$B$17</f>
         <v>31907.999999999996</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
       <c r="J19">
-        <f t="shared" ref="J19:J36" si="3">H19*I19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
         <v>41908</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
       <c r="L19">
-        <f t="shared" ref="L19:L36" si="4">H19*I19*K19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19:M36" si="4">I19*J19*L19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+H19*$H$17</f>
         <v>41908</v>
       </c>
-      <c r="M19">
-        <v>1.5</v>
-      </c>
       <c r="N19">
-        <f t="shared" ref="N19:N36" si="5">H19*I19*M19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
+        <v>1.5</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ref="O19:O36" si="5">I19*J19*N19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+H19*$H$17</f>
         <v>57861.999999999993</v>
       </c>
-      <c r="O19">
-        <v>2</v>
-      </c>
       <c r="P19">
-        <f t="shared" ref="P19:P36" si="6">H19*I19*O19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+G19*$G$17</f>
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ref="Q19:Q36" si="6">I19*J19*P19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+H19*$H$17</f>
         <v>73816</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>29</v>
       </c>
@@ -803,40 +813,40 @@
       <c r="C20">
         <v>16</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="2"/>
+      <c r="I20">
+        <f t="shared" si="3"/>
         <v>7976.9999999999991</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
       <c r="J20">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
         <v>11177</v>
       </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
       <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="4"/>
         <v>11177</v>
       </c>
-      <c r="M20">
-        <v>1.5</v>
-      </c>
       <c r="N20">
+        <v>1.5</v>
+      </c>
+      <c r="O20">
         <f t="shared" si="5"/>
         <v>15165.499999999998</v>
       </c>
-      <c r="O20">
-        <v>2</v>
-      </c>
       <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="6"/>
         <v>19154</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>31</v>
       </c>
@@ -846,40 +856,40 @@
       <c r="C21">
         <v>32</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
+      <c r="I21">
+        <f t="shared" si="3"/>
         <v>7976.9999999999991</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.6</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="3"/>
+      <c r="K21">
+        <f t="shared" si="2"/>
         <v>11186.199999999999</v>
       </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
       <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="4"/>
         <v>11186.199999999999</v>
       </c>
-      <c r="M21">
-        <v>1.5</v>
-      </c>
       <c r="N21">
+        <v>1.5</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="5"/>
         <v>13579.3</v>
       </c>
-      <c r="O21">
-        <v>2</v>
-      </c>
       <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="6"/>
         <v>15972.399999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>32</v>
       </c>
@@ -889,40 +899,40 @@
       <c r="D22">
         <v>8</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="2"/>
+      <c r="I22">
+        <f t="shared" si="3"/>
         <v>19144.8</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.5</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="3"/>
+      <c r="K22">
+        <f t="shared" si="2"/>
         <v>17572.400000000001</v>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
       <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="4"/>
         <v>17572.400000000001</v>
       </c>
-      <c r="M22">
-        <v>1.5</v>
-      </c>
       <c r="N22">
+        <v>1.5</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="5"/>
         <v>22358.6</v>
       </c>
-      <c r="O22">
-        <v>2</v>
-      </c>
       <c r="P22">
+        <v>2</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="6"/>
         <v>27144.799999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>33</v>
       </c>
@@ -932,40 +942,40 @@
       <c r="C23">
         <v>130</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="2"/>
+      <c r="I23">
+        <f t="shared" si="3"/>
         <v>26589.999999999996</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
       <c r="J23">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
         <v>52590</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
       <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="4"/>
         <v>52590</v>
       </c>
-      <c r="M23">
-        <v>1.5</v>
-      </c>
       <c r="N23">
+        <v>1.5</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="5"/>
         <v>65885</v>
       </c>
-      <c r="O23">
-        <v>2</v>
-      </c>
       <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="6"/>
         <v>79180</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>34</v>
       </c>
@@ -975,43 +985,43 @@
       <c r="E24">
         <v>9</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>9</v>
       </c>
-      <c r="H24">
-        <f t="shared" si="2"/>
+      <c r="I24">
+        <f t="shared" si="3"/>
         <v>15953.999999999998</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="3"/>
+      <c r="K24">
+        <f t="shared" si="2"/>
         <v>24749.399999999998</v>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
       <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="4"/>
         <v>24749.399999999998</v>
       </c>
-      <c r="M24">
-        <v>1.5</v>
-      </c>
       <c r="N24">
+        <v>1.5</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="5"/>
         <v>33524.1</v>
       </c>
-      <c r="O24">
-        <v>2</v>
-      </c>
       <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="6"/>
         <v>42298.799999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>35</v>
       </c>
@@ -1024,43 +1034,43 @@
       <c r="E25">
         <v>17</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>10</v>
       </c>
-      <c r="H25">
-        <f t="shared" si="2"/>
+      <c r="I25">
+        <f t="shared" si="3"/>
         <v>26589.999999999996</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
       <c r="J25">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
         <v>46590</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
       <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="4"/>
         <v>46590</v>
       </c>
-      <c r="M25">
-        <v>1.5</v>
-      </c>
       <c r="N25">
+        <v>1.5</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="5"/>
         <v>59884.999999999993</v>
       </c>
-      <c r="O25">
-        <v>2</v>
-      </c>
       <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="6"/>
         <v>73180</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>36</v>
       </c>
@@ -1070,40 +1080,40 @@
       <c r="C26">
         <v>36</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="2"/>
+      <c r="I26">
+        <f t="shared" si="3"/>
         <v>23930.999999999996</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
       <c r="J26">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
         <v>31130.999999999996</v>
       </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
       <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="4"/>
         <v>31130.999999999996</v>
       </c>
-      <c r="M26">
-        <v>1.5</v>
-      </c>
       <c r="N26">
+        <v>1.5</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="5"/>
         <v>43096.499999999993</v>
       </c>
-      <c r="O26">
-        <v>2</v>
-      </c>
       <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="6"/>
         <v>55061.999999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>37</v>
       </c>
@@ -1116,40 +1126,40 @@
       <c r="E27">
         <v>9</v>
       </c>
-      <c r="H27">
-        <f t="shared" si="2"/>
+      <c r="I27">
+        <f t="shared" si="3"/>
         <v>29248.999999999996</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
       <c r="J27">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
         <v>36849</v>
       </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
       <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="4"/>
         <v>36849</v>
       </c>
-      <c r="M27">
-        <v>1.5</v>
-      </c>
       <c r="N27">
+        <v>1.5</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="5"/>
         <v>51473.499999999993</v>
       </c>
-      <c r="O27">
-        <v>2</v>
-      </c>
       <c r="P27">
+        <v>2</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="6"/>
         <v>66098</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>38</v>
       </c>
@@ -1159,40 +1169,40 @@
       <c r="C28">
         <v>45</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="2"/>
+      <c r="I28">
+        <f t="shared" si="3"/>
         <v>15953.999999999998</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.7</v>
       </c>
-      <c r="J28">
-        <f t="shared" si="3"/>
+      <c r="K28">
+        <f t="shared" si="2"/>
         <v>20167.799999999996</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
       <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="4"/>
         <v>20167.799999999996</v>
       </c>
-      <c r="M28">
-        <v>1.5</v>
-      </c>
       <c r="N28">
+        <v>1.5</v>
+      </c>
+      <c r="O28">
         <f t="shared" si="5"/>
         <v>25751.699999999997</v>
       </c>
-      <c r="O28">
-        <v>2</v>
-      </c>
       <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="6"/>
         <v>31335.599999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>39</v>
       </c>
@@ -1205,40 +1215,40 @@
       <c r="E29">
         <v>13</v>
       </c>
-      <c r="H29">
-        <f t="shared" si="2"/>
+      <c r="I29">
+        <f t="shared" si="3"/>
         <v>23930.999999999996</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
       <c r="J29">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
         <v>40731</v>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
       <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="4"/>
         <v>40731</v>
       </c>
-      <c r="M29">
-        <v>1.5</v>
-      </c>
       <c r="N29">
+        <v>1.5</v>
+      </c>
+      <c r="O29">
         <f t="shared" si="5"/>
         <v>52696.499999999993</v>
       </c>
-      <c r="O29">
-        <v>2</v>
-      </c>
       <c r="P29">
+        <v>2</v>
+      </c>
+      <c r="Q29">
         <f t="shared" si="6"/>
         <v>64661.999999999993</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>40</v>
       </c>
@@ -1251,40 +1261,40 @@
       <c r="E30">
         <v>18</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="2"/>
+      <c r="I30">
+        <f t="shared" si="3"/>
         <v>26589.999999999996</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
       <c r="J30">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
         <v>37790</v>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
       <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="4"/>
         <v>37790</v>
       </c>
-      <c r="M30">
-        <v>1.5</v>
-      </c>
       <c r="N30">
+        <v>1.5</v>
+      </c>
+      <c r="O30">
         <f t="shared" si="5"/>
         <v>51084.999999999993</v>
       </c>
-      <c r="O30">
-        <v>2</v>
-      </c>
       <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
         <f t="shared" si="6"/>
         <v>64379.999999999993</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>42</v>
       </c>
@@ -1294,40 +1304,40 @@
       <c r="E31">
         <v>9</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="2"/>
+      <c r="I31">
+        <f t="shared" si="3"/>
         <v>26589.999999999996</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0.8</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="3"/>
+      <c r="K31">
+        <f t="shared" si="2"/>
         <v>24872</v>
       </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
       <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="4"/>
         <v>24872</v>
       </c>
-      <c r="M31">
-        <v>1.5</v>
-      </c>
       <c r="N31">
+        <v>1.5</v>
+      </c>
+      <c r="O31">
         <f t="shared" si="5"/>
         <v>35508</v>
       </c>
-      <c r="O31">
-        <v>2</v>
-      </c>
       <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31">
         <f t="shared" si="6"/>
         <v>46144</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>43</v>
       </c>
@@ -1340,40 +1350,40 @@
       <c r="E32">
         <v>18</v>
       </c>
-      <c r="H32">
-        <f t="shared" si="2"/>
+      <c r="I32">
+        <f t="shared" si="3"/>
         <v>26589.999999999996</v>
       </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
       <c r="J32">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
         <v>58990</v>
       </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
       <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="4"/>
         <v>58990</v>
       </c>
-      <c r="M32">
-        <v>1.5</v>
-      </c>
       <c r="N32">
+        <v>1.5</v>
+      </c>
+      <c r="O32">
         <f t="shared" si="5"/>
         <v>72285</v>
       </c>
-      <c r="O32">
-        <v>2</v>
-      </c>
       <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="6"/>
         <v>85580</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>45</v>
       </c>
@@ -1383,40 +1393,40 @@
       <c r="E33">
         <v>24</v>
       </c>
-      <c r="H33">
-        <f t="shared" si="2"/>
+      <c r="I33">
+        <f t="shared" si="3"/>
         <v>21272</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
       <c r="J33">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
         <v>30872</v>
       </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
       <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
         <f t="shared" si="4"/>
         <v>30872</v>
       </c>
-      <c r="M33">
-        <v>1.5</v>
-      </c>
       <c r="N33">
+        <v>1.5</v>
+      </c>
+      <c r="O33">
         <f t="shared" si="5"/>
         <v>41508</v>
       </c>
-      <c r="O33">
-        <v>2</v>
-      </c>
       <c r="P33">
+        <v>2</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="6"/>
         <v>52144</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>46</v>
       </c>
@@ -1429,40 +1439,40 @@
       <c r="E34">
         <v>7</v>
       </c>
-      <c r="H34">
-        <f t="shared" si="2"/>
+      <c r="I34">
+        <f t="shared" si="3"/>
         <v>18613</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>9</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="3"/>
+      <c r="K34">
+        <f t="shared" si="2"/>
         <v>177917</v>
       </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
       <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
         <f t="shared" si="4"/>
         <v>177917</v>
       </c>
-      <c r="M34">
-        <v>1.5</v>
-      </c>
       <c r="N34">
+        <v>1.5</v>
+      </c>
+      <c r="O34">
         <f t="shared" si="5"/>
         <v>261675.5</v>
       </c>
-      <c r="O34">
-        <v>2</v>
-      </c>
       <c r="P34">
+        <v>2</v>
+      </c>
+      <c r="Q34">
         <f t="shared" si="6"/>
         <v>345434</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>47</v>
       </c>
@@ -1475,43 +1485,43 @@
       <c r="E35">
         <v>5</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>16</v>
       </c>
-      <c r="H35">
-        <f t="shared" si="2"/>
+      <c r="I35">
+        <f t="shared" si="3"/>
         <v>15953.999999999998</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
       <c r="J35">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="2"/>
         <v>26354</v>
       </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
       <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
         <f t="shared" si="4"/>
         <v>26354</v>
       </c>
-      <c r="M35">
-        <v>1.5</v>
-      </c>
       <c r="N35">
+        <v>1.5</v>
+      </c>
+      <c r="O35">
         <f t="shared" si="5"/>
         <v>34331</v>
       </c>
-      <c r="O35">
-        <v>2</v>
-      </c>
       <c r="P35">
+        <v>2</v>
+      </c>
+      <c r="Q35">
         <f t="shared" si="6"/>
         <v>42308</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>48</v>
       </c>
@@ -1524,40 +1534,40 @@
       <c r="E36">
         <v>20</v>
       </c>
-      <c r="H36">
-        <f t="shared" si="2"/>
+      <c r="I36">
+        <f t="shared" si="3"/>
         <v>26589.999999999996</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0.9</v>
       </c>
-      <c r="J36">
-        <f t="shared" si="3"/>
+      <c r="K36">
+        <f t="shared" si="2"/>
         <v>43931</v>
       </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
       <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
         <f t="shared" si="4"/>
         <v>43931</v>
       </c>
-      <c r="M36">
-        <v>1.5</v>
-      </c>
       <c r="N36">
+        <v>1.5</v>
+      </c>
+      <c r="O36">
         <f t="shared" si="5"/>
         <v>55896.499999999993</v>
       </c>
-      <c r="O36">
-        <v>2</v>
-      </c>
       <c r="P36">
+        <v>2</v>
+      </c>
+      <c r="Q36">
         <f t="shared" si="6"/>
         <v>67862</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>49</v>
       </c>
@@ -1570,40 +1580,40 @@
       <c r="E37">
         <v>16</v>
       </c>
-      <c r="H37">
-        <f t="shared" ref="H37:H60" si="7">B37*$B$17</f>
+      <c r="I37">
+        <f t="shared" ref="I37:I60" si="7">B37*$B$17</f>
         <v>21272</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.6</v>
       </c>
-      <c r="J37">
-        <f t="shared" ref="J37:J60" si="8">H37*I37+C37*$C$17+D37*$D$17+E37*$E$17+F37*$F$17+G37*$G$17</f>
+      <c r="K37">
+        <f t="shared" si="2"/>
         <v>22363.199999999997</v>
       </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
       <c r="L37">
-        <f t="shared" ref="L37:L60" si="9">H37*I37*K37+C37*$C$17+D37*$D$17+E37*$E$17+F37*$F$17+G37*$G$17</f>
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ref="M37:M60" si="8">I37*J37*L37+C37*$C$17+D37*$D$17+E37*$E$17+F37*$F$17+H37*$H$17</f>
         <v>22363.199999999997</v>
       </c>
-      <c r="M37">
-        <v>1.5</v>
-      </c>
       <c r="N37">
-        <f t="shared" ref="N37:N60" si="10">H37*I37*M37+C37*$C$17+D37*$D$17+E37*$E$17+F37*$F$17+G37*$G$17</f>
+        <v>1.5</v>
+      </c>
+      <c r="O37">
+        <f t="shared" ref="O37:O60" si="9">I37*J37*N37+C37*$C$17+D37*$D$17+E37*$E$17+F37*$F$17+H37*$H$17</f>
         <v>28744.799999999999</v>
       </c>
-      <c r="O37">
-        <v>2</v>
-      </c>
       <c r="P37">
-        <f t="shared" ref="P37:P60" si="11">H37*I37*O37+C37*$C$17+D37*$D$17+E37*$E$17+F37*$F$17+G37*$G$17</f>
+        <v>2</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" ref="Q37:Q60" si="10">I37*J37*P37+C37*$C$17+D37*$D$17+E37*$E$17+F37*$F$17+H37*$H$17</f>
         <v>35126.399999999994</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>50</v>
       </c>
@@ -1616,43 +1626,43 @@
       <c r="E38">
         <v>32</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>16</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <f t="shared" si="7"/>
         <v>26589.999999999996</v>
       </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
       <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>47790</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
         <f t="shared" si="8"/>
         <v>47790</v>
       </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
+      <c r="N38">
+        <v>1.5</v>
+      </c>
+      <c r="O38">
         <f t="shared" si="9"/>
-        <v>47790</v>
-      </c>
-      <c r="M38">
-        <v>1.5</v>
-      </c>
-      <c r="N38">
+        <v>61084.999999999993</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+      <c r="Q38">
         <f t="shared" si="10"/>
-        <v>61084.999999999993</v>
-      </c>
-      <c r="O38">
-        <v>2</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="11"/>
         <v>74380</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>51</v>
       </c>
@@ -1662,43 +1672,43 @@
       <c r="C39">
         <v>20</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>22</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <f t="shared" si="7"/>
         <v>18613</v>
       </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
       <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>31413</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
         <f t="shared" si="8"/>
         <v>31413</v>
       </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39">
+      <c r="N39">
+        <v>1.5</v>
+      </c>
+      <c r="O39">
         <f t="shared" si="9"/>
-        <v>31413</v>
-      </c>
-      <c r="M39">
-        <v>1.5</v>
-      </c>
-      <c r="N39">
+        <v>40719.5</v>
+      </c>
+      <c r="P39">
+        <v>2</v>
+      </c>
+      <c r="Q39">
         <f t="shared" si="10"/>
-        <v>40719.5</v>
-      </c>
-      <c r="O39">
-        <v>2</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="11"/>
         <v>50026</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>52</v>
       </c>
@@ -1711,43 +1721,43 @@
       <c r="E40">
         <v>9</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>9</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <f t="shared" si="7"/>
         <v>21272</v>
       </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
       <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>30272</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
         <f t="shared" si="8"/>
         <v>30272</v>
       </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40">
+      <c r="N40">
+        <v>1.5</v>
+      </c>
+      <c r="O40">
         <f t="shared" si="9"/>
-        <v>30272</v>
-      </c>
-      <c r="M40">
-        <v>1.5</v>
-      </c>
-      <c r="N40">
+        <v>40908</v>
+      </c>
+      <c r="P40">
+        <v>2</v>
+      </c>
+      <c r="Q40">
         <f t="shared" si="10"/>
-        <v>40908</v>
-      </c>
-      <c r="O40">
-        <v>2</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="11"/>
         <v>51544</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>53</v>
       </c>
@@ -1760,40 +1770,40 @@
       <c r="E41">
         <v>10</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <f t="shared" si="7"/>
         <v>22335.599999999999</v>
       </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
       <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>27935.599999999999</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
         <f t="shared" si="8"/>
         <v>27935.599999999999</v>
       </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41">
+      <c r="N41">
+        <v>1.5</v>
+      </c>
+      <c r="O41">
         <f t="shared" si="9"/>
-        <v>27935.599999999999</v>
-      </c>
-      <c r="M41">
-        <v>1.5</v>
-      </c>
-      <c r="N41">
+        <v>39103.399999999994</v>
+      </c>
+      <c r="P41">
+        <v>2</v>
+      </c>
+      <c r="Q41">
         <f t="shared" si="10"/>
-        <v>39103.399999999994</v>
-      </c>
-      <c r="O41">
-        <v>2</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="11"/>
         <v>50271.199999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>54</v>
       </c>
@@ -1806,40 +1816,40 @@
       <c r="E42">
         <v>14</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <f t="shared" si="7"/>
         <v>21272</v>
       </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
       <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>30872</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
         <f t="shared" si="8"/>
         <v>30872</v>
       </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42">
+      <c r="N42">
+        <v>1.5</v>
+      </c>
+      <c r="O42">
         <f t="shared" si="9"/>
-        <v>30872</v>
-      </c>
-      <c r="M42">
-        <v>1.5</v>
-      </c>
-      <c r="N42">
+        <v>41508</v>
+      </c>
+      <c r="P42">
+        <v>2</v>
+      </c>
+      <c r="Q42">
         <f t="shared" si="10"/>
-        <v>41508</v>
-      </c>
-      <c r="O42">
-        <v>2</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="11"/>
         <v>52144</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>55</v>
       </c>
@@ -1852,46 +1862,46 @@
       <c r="E43">
         <v>24</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>51</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <f t="shared" si="7"/>
         <v>7976.9999999999991</v>
       </c>
-      <c r="I43">
-        <v>2</v>
-      </c>
       <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>46954</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
         <f t="shared" si="8"/>
         <v>46954</v>
       </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43">
+      <c r="N43">
+        <v>1.5</v>
+      </c>
+      <c r="O43">
         <f t="shared" si="9"/>
-        <v>46954</v>
-      </c>
-      <c r="M43">
-        <v>1.5</v>
-      </c>
-      <c r="N43">
+        <v>54931</v>
+      </c>
+      <c r="P43">
+        <v>2</v>
+      </c>
+      <c r="Q43">
         <f t="shared" si="10"/>
-        <v>54931</v>
-      </c>
-      <c r="O43">
-        <v>2</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="11"/>
         <v>62908</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>56</v>
       </c>
@@ -1904,83 +1914,83 @@
       <c r="E44">
         <v>26</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <f t="shared" si="7"/>
         <v>23930.999999999996</v>
       </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
       <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>41531</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
         <f t="shared" si="8"/>
         <v>41531</v>
       </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44">
+      <c r="N44">
+        <v>1.5</v>
+      </c>
+      <c r="O44">
         <f t="shared" si="9"/>
-        <v>41531</v>
-      </c>
-      <c r="M44">
-        <v>1.5</v>
-      </c>
-      <c r="N44">
+        <v>53496.499999999993</v>
+      </c>
+      <c r="P44">
+        <v>2</v>
+      </c>
+      <c r="Q44">
         <f t="shared" si="10"/>
-        <v>53496.499999999993</v>
-      </c>
-      <c r="O44">
-        <v>2</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="11"/>
         <v>65461.999999999993</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>57</v>
       </c>
       <c r="B45">
         <v>20</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>7</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <f t="shared" si="7"/>
         <v>10636</v>
       </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
       <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>13436</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
         <f t="shared" si="8"/>
         <v>13436</v>
       </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45">
+      <c r="N45">
+        <v>1.5</v>
+      </c>
+      <c r="O45">
         <f t="shared" si="9"/>
-        <v>13436</v>
-      </c>
-      <c r="M45">
-        <v>1.5</v>
-      </c>
-      <c r="N45">
+        <v>18754</v>
+      </c>
+      <c r="P45">
+        <v>2</v>
+      </c>
+      <c r="Q45">
         <f t="shared" si="10"/>
-        <v>18754</v>
-      </c>
-      <c r="O45">
-        <v>2</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="11"/>
         <v>24072</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>58</v>
       </c>
@@ -1990,77 +2000,77 @@
       <c r="C46">
         <v>24</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>12</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <f t="shared" si="7"/>
         <v>10636</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
       <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>20236</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
         <f t="shared" si="8"/>
         <v>20236</v>
       </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
+      <c r="N46">
+        <v>1.5</v>
+      </c>
+      <c r="O46">
         <f t="shared" si="9"/>
-        <v>20236</v>
-      </c>
-      <c r="M46">
-        <v>1.5</v>
-      </c>
-      <c r="N46">
+        <v>25554</v>
+      </c>
+      <c r="P46">
+        <v>2</v>
+      </c>
+      <c r="Q46">
         <f t="shared" si="10"/>
-        <v>25554</v>
-      </c>
-      <c r="O46">
-        <v>2</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="11"/>
         <v>30872</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>59</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
       <c r="J47">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
         <v>45000</v>
       </c>
-      <c r="M47">
-        <v>1.5</v>
-      </c>
       <c r="N47">
+        <v>1.5</v>
+      </c>
+      <c r="O47">
         <v>60000</v>
       </c>
-      <c r="O47">
-        <v>2</v>
-      </c>
       <c r="P47">
+        <v>2</v>
+      </c>
+      <c r="Q47">
         <v>75000</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>60</v>
       </c>
@@ -2070,43 +2080,43 @@
       <c r="D48">
         <v>4</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>12</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <f t="shared" si="7"/>
         <v>26589.999999999996</v>
       </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
       <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>35390</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
         <f t="shared" si="8"/>
         <v>35390</v>
       </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48">
+      <c r="N48">
+        <v>1.5</v>
+      </c>
+      <c r="O48">
         <f t="shared" si="9"/>
-        <v>35390</v>
-      </c>
-      <c r="M48">
-        <v>1.5</v>
-      </c>
-      <c r="N48">
+        <v>48684.999999999993</v>
+      </c>
+      <c r="P48">
+        <v>2</v>
+      </c>
+      <c r="Q48">
         <f t="shared" si="10"/>
-        <v>48684.999999999993</v>
-      </c>
-      <c r="O48">
-        <v>2</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="11"/>
         <v>61979.999999999993</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>61</v>
       </c>
@@ -2119,43 +2129,43 @@
       <c r="E49">
         <v>9</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>15</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <f t="shared" si="7"/>
         <v>26589.999999999996</v>
       </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
       <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="2"/>
+        <v>42190</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
         <f t="shared" si="8"/>
         <v>42190</v>
       </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49">
+      <c r="N49">
+        <v>1.5</v>
+      </c>
+      <c r="O49">
         <f t="shared" si="9"/>
-        <v>42190</v>
-      </c>
-      <c r="M49">
-        <v>1.5</v>
-      </c>
-      <c r="N49">
+        <v>55484.999999999993</v>
+      </c>
+      <c r="P49">
+        <v>2</v>
+      </c>
+      <c r="Q49">
         <f t="shared" si="10"/>
-        <v>55484.999999999993</v>
-      </c>
-      <c r="O49">
-        <v>2</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="11"/>
         <v>68780</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>62</v>
       </c>
@@ -2168,40 +2178,40 @@
       <c r="E50">
         <v>18</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <f t="shared" si="7"/>
         <v>11167.8</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
       <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="2"/>
+        <v>23367.8</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
         <f t="shared" si="8"/>
         <v>23367.8</v>
       </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50">
+      <c r="N50">
+        <v>1.5</v>
+      </c>
+      <c r="O50">
         <f t="shared" si="9"/>
-        <v>23367.8</v>
-      </c>
-      <c r="M50">
-        <v>1.5</v>
-      </c>
-      <c r="N50">
+        <v>28951.699999999997</v>
+      </c>
+      <c r="P50">
+        <v>2</v>
+      </c>
+      <c r="Q50">
         <f t="shared" si="10"/>
-        <v>28951.699999999997</v>
-      </c>
-      <c r="O50">
-        <v>2</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="11"/>
         <v>34535.599999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>63</v>
       </c>
@@ -2211,74 +2221,74 @@
       <c r="C51">
         <v>8</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <f t="shared" si="7"/>
         <v>10636</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>1.2</v>
       </c>
-      <c r="J51">
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>14363.199999999999</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
         <f t="shared" si="8"/>
         <v>14363.199999999999</v>
       </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51">
+      <c r="N51">
+        <v>1.5</v>
+      </c>
+      <c r="O51">
         <f t="shared" si="9"/>
-        <v>14363.199999999999</v>
-      </c>
-      <c r="M51">
-        <v>1.5</v>
-      </c>
-      <c r="N51">
+        <v>20744.8</v>
+      </c>
+      <c r="P51">
+        <v>2</v>
+      </c>
+      <c r="Q51">
         <f t="shared" si="10"/>
-        <v>20744.8</v>
-      </c>
-      <c r="O51">
-        <v>2</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="11"/>
         <v>27126.399999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>64</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
       <c r="J52">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
         <v>45000</v>
       </c>
-      <c r="M52">
-        <v>1.5</v>
-      </c>
       <c r="N52">
+        <v>1.5</v>
+      </c>
+      <c r="O52">
         <v>55000</v>
       </c>
-      <c r="O52">
-        <v>2</v>
-      </c>
       <c r="P52">
+        <v>2</v>
+      </c>
+      <c r="Q52">
         <v>65000</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>65</v>
       </c>
@@ -2291,40 +2301,40 @@
       <c r="E53">
         <v>6</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <f t="shared" si="7"/>
         <v>26589.999999999996</v>
       </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
       <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="2"/>
+        <v>56190</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
         <f t="shared" si="8"/>
         <v>56190</v>
       </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53">
+      <c r="N53">
+        <v>1.5</v>
+      </c>
+      <c r="O53">
         <f t="shared" si="9"/>
-        <v>56190</v>
-      </c>
-      <c r="M53">
-        <v>1.5</v>
-      </c>
-      <c r="N53">
+        <v>69485</v>
+      </c>
+      <c r="P53">
+        <v>2</v>
+      </c>
+      <c r="Q53">
         <f t="shared" si="10"/>
-        <v>69485</v>
-      </c>
-      <c r="O53">
-        <v>2</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="11"/>
         <v>82780</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>66</v>
       </c>
@@ -2334,40 +2344,40 @@
       <c r="D54">
         <v>4</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <f t="shared" si="7"/>
         <v>21272</v>
       </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
       <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="2"/>
+        <v>25272</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
         <f t="shared" si="8"/>
         <v>25272</v>
       </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54">
+      <c r="N54">
+        <v>1.5</v>
+      </c>
+      <c r="O54">
         <f t="shared" si="9"/>
-        <v>25272</v>
-      </c>
-      <c r="M54">
-        <v>1.5</v>
-      </c>
-      <c r="N54">
+        <v>35908</v>
+      </c>
+      <c r="P54">
+        <v>2</v>
+      </c>
+      <c r="Q54">
         <f t="shared" si="10"/>
-        <v>35908</v>
-      </c>
-      <c r="O54">
-        <v>2</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="11"/>
         <v>46544</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>67</v>
       </c>
@@ -2380,40 +2390,40 @@
       <c r="E55">
         <v>5</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <f t="shared" si="7"/>
         <v>13294.999999999998</v>
       </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
       <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="2"/>
+        <v>17695</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
         <f t="shared" si="8"/>
         <v>17695</v>
       </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55">
+      <c r="N55">
+        <v>1.5</v>
+      </c>
+      <c r="O55">
         <f t="shared" si="9"/>
-        <v>17695</v>
-      </c>
-      <c r="M55">
-        <v>1.5</v>
-      </c>
-      <c r="N55">
+        <v>24342.499999999996</v>
+      </c>
+      <c r="P55">
+        <v>2</v>
+      </c>
+      <c r="Q55">
         <f t="shared" si="10"/>
-        <v>24342.499999999996</v>
-      </c>
-      <c r="O55">
-        <v>2</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="11"/>
         <v>30989.999999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>68</v>
       </c>
@@ -2426,40 +2436,40 @@
       <c r="E56">
         <v>6</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <f t="shared" si="7"/>
         <v>13294.999999999998</v>
       </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
       <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="2"/>
+        <v>38095</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
         <f t="shared" si="8"/>
         <v>38095</v>
       </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-      <c r="L56">
+      <c r="N56">
+        <v>1.5</v>
+      </c>
+      <c r="O56">
         <f t="shared" si="9"/>
-        <v>38095</v>
-      </c>
-      <c r="M56">
-        <v>1.5</v>
-      </c>
-      <c r="N56">
+        <v>44742.5</v>
+      </c>
+      <c r="P56">
+        <v>2</v>
+      </c>
+      <c r="Q56">
         <f t="shared" si="10"/>
-        <v>44742.5</v>
-      </c>
-      <c r="O56">
-        <v>2</v>
-      </c>
-      <c r="P56">
-        <f t="shared" si="11"/>
         <v>51390</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>69</v>
       </c>
@@ -2469,43 +2479,43 @@
       <c r="C57">
         <v>26</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>13</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <f t="shared" si="7"/>
         <v>13294.999999999998</v>
       </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
       <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="2"/>
+        <v>23695</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
         <f t="shared" si="8"/>
         <v>23695</v>
       </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="L57">
+      <c r="N57">
+        <v>1.5</v>
+      </c>
+      <c r="O57">
         <f t="shared" si="9"/>
-        <v>23695</v>
-      </c>
-      <c r="M57">
-        <v>1.5</v>
-      </c>
-      <c r="N57">
+        <v>30342.499999999996</v>
+      </c>
+      <c r="P57">
+        <v>2</v>
+      </c>
+      <c r="Q57">
         <f t="shared" si="10"/>
-        <v>30342.499999999996</v>
-      </c>
-      <c r="O57">
-        <v>2</v>
-      </c>
-      <c r="P57">
-        <f t="shared" si="11"/>
         <v>36990</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>70</v>
       </c>
@@ -2518,40 +2528,40 @@
       <c r="E58">
         <v>4</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <f t="shared" si="7"/>
         <v>23930.999999999996</v>
       </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
       <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="2"/>
+        <v>36731</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
         <f t="shared" si="8"/>
         <v>36731</v>
       </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58">
+      <c r="N58">
+        <v>1.5</v>
+      </c>
+      <c r="O58">
         <f t="shared" si="9"/>
-        <v>36731</v>
-      </c>
-      <c r="M58">
-        <v>1.5</v>
-      </c>
-      <c r="N58">
+        <v>48696.499999999993</v>
+      </c>
+      <c r="P58">
+        <v>2</v>
+      </c>
+      <c r="Q58">
         <f t="shared" si="10"/>
-        <v>48696.499999999993</v>
-      </c>
-      <c r="O58">
-        <v>2</v>
-      </c>
-      <c r="P58">
-        <f t="shared" si="11"/>
         <v>60661.999999999993</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>71</v>
       </c>
@@ -2564,40 +2574,40 @@
       <c r="E59">
         <v>3</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <f t="shared" si="7"/>
         <v>18613</v>
       </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
       <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="2"/>
+        <v>23813</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
         <f t="shared" si="8"/>
         <v>23813</v>
       </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-      <c r="L59">
+      <c r="N59">
+        <v>1.5</v>
+      </c>
+      <c r="O59">
         <f t="shared" si="9"/>
-        <v>23813</v>
-      </c>
-      <c r="M59">
-        <v>1.5</v>
-      </c>
-      <c r="N59">
+        <v>33119.5</v>
+      </c>
+      <c r="P59">
+        <v>2</v>
+      </c>
+      <c r="Q59">
         <f t="shared" si="10"/>
-        <v>33119.5</v>
-      </c>
-      <c r="O59">
-        <v>2</v>
-      </c>
-      <c r="P59">
-        <f t="shared" si="11"/>
         <v>42426</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>72</v>
       </c>
@@ -2607,43 +2617,43 @@
       <c r="E60">
         <v>3</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>19</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <f t="shared" si="7"/>
         <v>23930.999999999996</v>
       </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
       <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="2"/>
+        <v>32730.999999999996</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
         <f t="shared" si="8"/>
         <v>32730.999999999996</v>
       </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60">
+      <c r="N60">
+        <v>1.5</v>
+      </c>
+      <c r="O60">
         <f t="shared" si="9"/>
-        <v>32730.999999999996</v>
-      </c>
-      <c r="M60">
-        <v>1.5</v>
-      </c>
-      <c r="N60">
+        <v>44696.499999999993</v>
+      </c>
+      <c r="P60">
+        <v>2</v>
+      </c>
+      <c r="Q60">
         <f t="shared" si="10"/>
-        <v>44696.499999999993</v>
-      </c>
-      <c r="O60">
-        <v>2</v>
-      </c>
-      <c r="P60">
-        <f t="shared" si="11"/>
         <v>56661.999999999993</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>73</v>
       </c>
@@ -2653,40 +2663,40 @@
       <c r="C61">
         <v>28</v>
       </c>
-      <c r="H61">
-        <f t="shared" ref="H61:H68" si="12">B61*$B$17</f>
+      <c r="I61">
+        <f t="shared" ref="I61:I68" si="11">B61*$B$17</f>
         <v>15953.999999999998</v>
       </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
       <c r="J61">
-        <f t="shared" ref="J61:J68" si="13">H61*I61+C61*$C$17+D61*$D$17+E61*$E$17+F61*$F$17+G61*$G$17</f>
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="2"/>
         <v>21554</v>
       </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
       <c r="L61">
-        <f t="shared" ref="L61:L67" si="14">H61*I61*K61+C61*$C$17+D61*$D$17+E61*$E$17+F61*$F$17+G61*$G$17</f>
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <f t="shared" ref="M61:M67" si="12">I61*J61*L61+C61*$C$17+D61*$D$17+E61*$E$17+F61*$F$17+H61*$H$17</f>
         <v>21554</v>
       </c>
-      <c r="M61">
-        <v>1.5</v>
-      </c>
       <c r="N61">
-        <f t="shared" ref="N61:N67" si="15">H61*I61*M61+C61*$C$17+D61*$D$17+E61*$E$17+F61*$F$17+G61*$G$17</f>
+        <v>1.5</v>
+      </c>
+      <c r="O61">
+        <f t="shared" ref="O61:O67" si="13">I61*J61*N61+C61*$C$17+D61*$D$17+E61*$E$17+F61*$F$17+H61*$H$17</f>
         <v>29530.999999999996</v>
       </c>
-      <c r="O61">
-        <v>2</v>
-      </c>
       <c r="P61">
-        <f t="shared" ref="P61:P67" si="16">H61*I61*O61+C61*$C$17+D61*$D$17+E61*$E$17+F61*$F$17+G61*$G$17</f>
+        <v>2</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" ref="Q61:Q67" si="14">I61*J61*P61+C61*$C$17+D61*$D$17+E61*$E$17+F61*$F$17+H61*$H$17</f>
         <v>37508</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>74</v>
       </c>
@@ -2696,43 +2706,43 @@
       <c r="D62">
         <v>10</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>8</v>
       </c>
-      <c r="H62">
+      <c r="I62">
+        <f t="shared" si="11"/>
+        <v>18613</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="2"/>
+        <v>31813</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
         <f t="shared" si="12"/>
-        <v>18613</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62">
+        <v>31813</v>
+      </c>
+      <c r="N62">
+        <v>1.5</v>
+      </c>
+      <c r="O62">
         <f t="shared" si="13"/>
-        <v>31813</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62">
+        <v>41119.5</v>
+      </c>
+      <c r="P62">
+        <v>2</v>
+      </c>
+      <c r="Q62">
         <f t="shared" si="14"/>
-        <v>31813</v>
-      </c>
-      <c r="M62">
-        <v>1.5</v>
-      </c>
-      <c r="N62">
-        <f t="shared" si="15"/>
-        <v>41119.5</v>
-      </c>
-      <c r="O62">
-        <v>2</v>
-      </c>
-      <c r="P62">
-        <f t="shared" si="16"/>
         <v>50426</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>75</v>
       </c>
@@ -2742,40 +2752,40 @@
       <c r="C63">
         <v>135</v>
       </c>
-      <c r="H63">
+      <c r="I63">
+        <f t="shared" si="11"/>
+        <v>15953.999999999998</v>
+      </c>
+      <c r="J63">
+        <v>1.2</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="2"/>
+        <v>46144.799999999996</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
         <f t="shared" si="12"/>
-        <v>15953.999999999998</v>
-      </c>
-      <c r="I63">
-        <v>1.2</v>
-      </c>
-      <c r="J63">
+        <v>46144.799999999996</v>
+      </c>
+      <c r="N63">
+        <v>1.5</v>
+      </c>
+      <c r="O63">
         <f t="shared" si="13"/>
-        <v>46144.799999999996</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="L63">
+        <v>55717.2</v>
+      </c>
+      <c r="P63">
+        <v>2</v>
+      </c>
+      <c r="Q63">
         <f t="shared" si="14"/>
-        <v>46144.799999999996</v>
-      </c>
-      <c r="M63">
-        <v>1.5</v>
-      </c>
-      <c r="N63">
-        <f t="shared" si="15"/>
-        <v>55717.2</v>
-      </c>
-      <c r="O63">
-        <v>2</v>
-      </c>
-      <c r="P63">
-        <f t="shared" si="16"/>
         <v>65289.599999999991</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>76</v>
       </c>
@@ -2785,40 +2795,40 @@
       <c r="D64">
         <v>3</v>
       </c>
-      <c r="H64">
+      <c r="I64">
+        <f t="shared" si="11"/>
+        <v>17549.399999999998</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="2"/>
+        <v>20549.399999999998</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
         <f t="shared" si="12"/>
-        <v>17549.399999999998</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64">
+        <v>20549.399999999998</v>
+      </c>
+      <c r="N64">
+        <v>1.5</v>
+      </c>
+      <c r="O64">
         <f t="shared" si="13"/>
-        <v>20549.399999999998</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="L64">
+        <v>29324.1</v>
+      </c>
+      <c r="P64">
+        <v>2</v>
+      </c>
+      <c r="Q64">
         <f t="shared" si="14"/>
-        <v>20549.399999999998</v>
-      </c>
-      <c r="M64">
-        <v>1.5</v>
-      </c>
-      <c r="N64">
-        <f t="shared" si="15"/>
-        <v>29324.1</v>
-      </c>
-      <c r="O64">
-        <v>2</v>
-      </c>
-      <c r="P64">
-        <f t="shared" si="16"/>
         <v>38098.799999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>77</v>
       </c>
@@ -2828,40 +2838,40 @@
       <c r="C65">
         <v>18</v>
       </c>
-      <c r="H65">
+      <c r="I65">
+        <f t="shared" si="11"/>
+        <v>26589.999999999996</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="2"/>
+        <v>30189.999999999996</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
         <f t="shared" si="12"/>
-        <v>26589.999999999996</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="J65">
+        <v>30189.999999999996</v>
+      </c>
+      <c r="N65">
+        <v>1.5</v>
+      </c>
+      <c r="O65">
         <f t="shared" si="13"/>
-        <v>30189.999999999996</v>
-      </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-      <c r="L65">
+        <v>43484.999999999993</v>
+      </c>
+      <c r="P65">
+        <v>2</v>
+      </c>
+      <c r="Q65">
         <f t="shared" si="14"/>
-        <v>30189.999999999996</v>
-      </c>
-      <c r="M65">
-        <v>1.5</v>
-      </c>
-      <c r="N65">
-        <f t="shared" si="15"/>
-        <v>43484.999999999993</v>
-      </c>
-      <c r="O65">
-        <v>2</v>
-      </c>
-      <c r="P65">
-        <f t="shared" si="16"/>
         <v>56779.999999999993</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>78</v>
       </c>
@@ -2871,40 +2881,40 @@
       <c r="D66">
         <v>4</v>
       </c>
-      <c r="H66">
+      <c r="I66">
+        <f t="shared" si="11"/>
+        <v>21272</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="2"/>
+        <v>25272</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
         <f t="shared" si="12"/>
-        <v>21272</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66">
+        <v>25272</v>
+      </c>
+      <c r="N66">
+        <v>1.5</v>
+      </c>
+      <c r="O66">
         <f t="shared" si="13"/>
-        <v>25272</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66">
+        <v>35908</v>
+      </c>
+      <c r="P66">
+        <v>2</v>
+      </c>
+      <c r="Q66">
         <f t="shared" si="14"/>
-        <v>25272</v>
-      </c>
-      <c r="M66">
-        <v>1.5</v>
-      </c>
-      <c r="N66">
-        <f t="shared" si="15"/>
-        <v>35908</v>
-      </c>
-      <c r="O66">
-        <v>2</v>
-      </c>
-      <c r="P66">
-        <f t="shared" si="16"/>
         <v>46544</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>79</v>
       </c>
@@ -2917,89 +2927,2333 @@
       <c r="E67">
         <v>8</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>3</v>
       </c>
-      <c r="H67">
+      <c r="I67">
+        <f t="shared" si="11"/>
+        <v>26589.999999999996</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <f>I67*J67+C67*$C$17+D67*$D$17+E67*$E$17+F67*$F$17+G67*$G$17+H67*$H$17</f>
+        <v>46590</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
         <f t="shared" si="12"/>
-        <v>26589.999999999996</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="J67">
+        <v>46590</v>
+      </c>
+      <c r="N67">
+        <v>1.5</v>
+      </c>
+      <c r="O67">
         <f t="shared" si="13"/>
-        <v>46590</v>
-      </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
-      <c r="L67">
+        <v>59884.999999999993</v>
+      </c>
+      <c r="P67">
+        <v>2</v>
+      </c>
+      <c r="Q67">
         <f t="shared" si="14"/>
-        <v>46590</v>
-      </c>
-      <c r="M67">
-        <v>1.5</v>
-      </c>
-      <c r="N67">
-        <f t="shared" si="15"/>
-        <v>59884.999999999993</v>
-      </c>
-      <c r="O67">
-        <v>2</v>
-      </c>
-      <c r="P67">
-        <f t="shared" si="16"/>
         <v>73180</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>80</v>
       </c>
-      <c r="H68">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
       <c r="I68">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="J68">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <f t="shared" ref="K68:K131" si="15">I68*J68+C68*$C$17+D68*$D$17+E68*$E$17+F68*$F$17+G68*$G$17+H68*$H$17</f>
+        <v>0</v>
       </c>
       <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
         <v>25000</v>
       </c>
-      <c r="M68">
-        <v>1.5</v>
-      </c>
       <c r="N68">
+        <v>1.5</v>
+      </c>
+      <c r="O68">
         <v>37500</v>
       </c>
-      <c r="O68">
-        <v>2</v>
-      </c>
       <c r="P68">
+        <v>2</v>
+      </c>
+      <c r="Q68">
         <v>50000</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>81</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B69">
+        <v>12</v>
+      </c>
+      <c r="G69">
+        <v>12</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ref="I69:I88" si="16">B69*$B$17</f>
+        <v>6381.5999999999995</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <f t="shared" ref="K69:K88" si="17">I69*J69+C69*$C$17+D69*$D$17+E69*$E$17+F69*$F$17+G69*$G$17+H69*$H$17</f>
+        <v>9981.5999999999985</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <f>I69*J69*L69+C69*$C$17+D69*$D$17+E69*$E$17+F69*$F$17+G69*$G$17+H69*$H$17</f>
+        <v>9981.5999999999985</v>
+      </c>
+      <c r="N69">
+        <v>1.5</v>
+      </c>
+      <c r="O69">
+        <f>I69*J69*N69+C69*$C$17+D69*$D$17+E69*$E$17+F69*$F$17+G69*$G$17+H69*$H$17</f>
+        <v>13172.4</v>
+      </c>
+      <c r="P69">
+        <v>2</v>
+      </c>
+      <c r="Q69">
+        <f>I69*J69*P69+C69*$C$17+D69*$D$17+E69*$E$17+F69*$F$17+G69*$G$17+H69*$H$17</f>
+        <v>16363.199999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>82</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B70">
+        <v>12</v>
+      </c>
+      <c r="G70">
+        <v>18</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="16"/>
+        <v>6381.5999999999995</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="17"/>
+        <v>11781.599999999999</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <f t="shared" ref="M70:M89" si="18">I70*J70*L70+C70*$C$17+D70*$D$17+E70*$E$17+F70*$F$17+G70*$G$17+H70*$H$17</f>
+        <v>11781.599999999999</v>
+      </c>
+      <c r="N70">
+        <v>1.5</v>
+      </c>
+      <c r="O70">
+        <f t="shared" ref="O70:O88" si="19">I70*J70*N70+C70*$C$17+D70*$D$17+E70*$E$17+F70*$F$17+G70*$G$17+H70*$H$17</f>
+        <v>14972.4</v>
+      </c>
+      <c r="P70">
+        <v>2</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" ref="Q70:Q88" si="20">I70*J70*P70+C70*$C$17+D70*$D$17+E70*$E$17+F70*$F$17+G70*$G$17+H70*$H$17</f>
+        <v>18163.199999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>83</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="G71">
+        <v>30</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="16"/>
+        <v>5318</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="17"/>
+        <v>14318</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="18"/>
+        <v>14318</v>
+      </c>
+      <c r="N71">
+        <v>1.5</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="19"/>
+        <v>16977</v>
+      </c>
+      <c r="P71">
+        <v>2</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="20"/>
+        <v>19636</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>84</v>
+      </c>
+      <c r="B72">
+        <v>18</v>
+      </c>
+      <c r="G72">
+        <v>40</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="16"/>
+        <v>9572.4</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="17"/>
+        <v>21572.400000000001</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="18"/>
+        <v>21572.400000000001</v>
+      </c>
+      <c r="N72">
+        <v>1.5</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="19"/>
+        <v>26358.6</v>
+      </c>
+      <c r="P72">
+        <v>2</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="20"/>
+        <v>31144.799999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>85</v>
+      </c>
+      <c r="B73">
+        <v>25</v>
+      </c>
+      <c r="G73">
+        <v>60</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="16"/>
+        <v>13294.999999999998</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="17"/>
+        <v>31295</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="18"/>
+        <v>31295</v>
+      </c>
+      <c r="N73">
+        <v>1.5</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="19"/>
+        <v>37942.5</v>
+      </c>
+      <c r="P73">
+        <v>2</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="20"/>
+        <v>44590</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>86</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="G74">
+        <v>36</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="16"/>
+        <v>5318</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="17"/>
+        <v>16118</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="18"/>
+        <v>16118</v>
+      </c>
+      <c r="N74">
+        <v>1.5</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="19"/>
+        <v>18777</v>
+      </c>
+      <c r="P74">
+        <v>2</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="20"/>
+        <v>21436</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>87</v>
+      </c>
+      <c r="B75">
+        <v>14</v>
+      </c>
+      <c r="G75">
+        <v>75</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="16"/>
+        <v>7445.1999999999989</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="17"/>
+        <v>29945.199999999997</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="18"/>
+        <v>29945.199999999997</v>
+      </c>
+      <c r="N75">
+        <v>1.5</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="19"/>
+        <v>33667.800000000003</v>
+      </c>
+      <c r="P75">
+        <v>2</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="20"/>
+        <v>37390.399999999994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>88</v>
+      </c>
+      <c r="B76">
+        <v>21</v>
+      </c>
+      <c r="G76">
+        <v>99</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="16"/>
+        <v>11167.8</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="17"/>
+        <v>40867.800000000003</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="18"/>
+        <v>40867.800000000003</v>
+      </c>
+      <c r="N76">
+        <v>1.5</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="19"/>
+        <v>46451.7</v>
+      </c>
+      <c r="P76">
+        <v>2</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="20"/>
+        <v>52035.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>89</v>
+      </c>
+      <c r="B77">
+        <v>20</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="16"/>
+        <v>10636</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="17"/>
+        <v>10936</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="18"/>
+        <v>10936</v>
+      </c>
+      <c r="N77">
+        <v>1.5</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="19"/>
+        <v>16254</v>
+      </c>
+      <c r="P77">
+        <v>2</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="20"/>
+        <v>21572</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>90</v>
+      </c>
+      <c r="B78">
+        <v>15</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="16"/>
+        <v>7976.9999999999991</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="17"/>
+        <v>8277</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="18"/>
+        <v>8277</v>
+      </c>
+      <c r="N78">
+        <v>1.5</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="19"/>
+        <v>12265.499999999998</v>
+      </c>
+      <c r="P78">
+        <v>2</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="20"/>
+        <v>16253.999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>91</v>
+      </c>
+      <c r="B79">
+        <v>18</v>
+      </c>
+      <c r="E79">
+        <v>8</v>
+      </c>
+      <c r="G79">
+        <v>90</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="16"/>
+        <v>9572.4</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="17"/>
+        <v>39772.400000000001</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="18"/>
+        <v>39772.400000000001</v>
+      </c>
+      <c r="N79">
+        <v>1.5</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="19"/>
+        <v>44558.6</v>
+      </c>
+      <c r="P79">
+        <v>2</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="20"/>
+        <v>49344.800000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>92</v>
+      </c>
+      <c r="B80">
+        <v>20</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="16"/>
+        <v>10636</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="17"/>
+        <v>11236</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="18"/>
+        <v>11236</v>
+      </c>
+      <c r="N80">
+        <v>1.5</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="19"/>
+        <v>16554</v>
+      </c>
+      <c r="P80">
+        <v>2</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="20"/>
+        <v>21872</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>93</v>
+      </c>
+      <c r="B81">
+        <v>25</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="16"/>
+        <v>13294.999999999998</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="17"/>
+        <v>13594.999999999998</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="18"/>
+        <v>13594.999999999998</v>
+      </c>
+      <c r="N81">
+        <v>1.5</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="19"/>
+        <v>20242.499999999996</v>
+      </c>
+      <c r="P81">
+        <v>2</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="20"/>
+        <v>26889.999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>94</v>
+      </c>
+      <c r="B82">
+        <v>25</v>
+      </c>
+      <c r="G82">
+        <v>4</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="16"/>
+        <v>13294.999999999998</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="17"/>
+        <v>14494.999999999998</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="18"/>
+        <v>14494.999999999998</v>
+      </c>
+      <c r="N82">
+        <v>1.5</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="19"/>
+        <v>21142.499999999996</v>
+      </c>
+      <c r="P82">
+        <v>2</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="20"/>
+        <v>27789.999999999996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>95</v>
+      </c>
+      <c r="B83">
+        <v>25</v>
+      </c>
+      <c r="G83">
+        <v>297</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="16"/>
+        <v>13294.999999999998</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="17"/>
+        <v>102395</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="18"/>
+        <v>102395</v>
+      </c>
+      <c r="N83">
+        <v>1.5</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="19"/>
+        <v>109042.5</v>
+      </c>
+      <c r="P83">
+        <v>2</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="20"/>
+        <v>115690</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>96</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>1.5</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>2</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>97</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>1.5</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>2</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>98</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>1.5</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>2</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>99</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>1.5</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>2</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>100</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>1.5</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>2</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K89">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K90">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K91">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K92">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K93">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K94">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K95">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K96">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K97">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K98">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K99">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K100">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K101">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K102">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K103">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K104">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K105">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K106">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K107">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K108">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K109">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K110">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K111">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K112">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K113">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K114">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K115">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K116">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K117">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K118">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K119">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K120">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K121">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K122">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K123">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K124">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K125">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K126">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K127">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K128">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K129">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K130">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K131">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K132">
+        <f t="shared" ref="K132:K195" si="21">I132*J132+C132*$C$17+D132*$D$17+E132*$E$17+F132*$F$17+G132*$G$17+H132*$H$17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K133">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K134">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K135">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K136">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K137">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K138">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K139">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K140">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K141">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K142">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K143">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K144">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K145">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K146">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K147">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K148">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K149">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K150">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K151">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K152">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K153">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K154">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K155">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K156">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K157">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K158">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K159">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K160">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K161">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K162">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K163">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K164">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K165">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K166">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K167">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K168">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K169">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K170">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K171">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K172">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K173">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K174">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K175">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K176">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K177">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K178">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K179">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K180">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K181">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K182">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K183">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K184">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K185">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K186">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K187">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K188">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K189">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K190">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K191">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K192">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K193">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K194">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K195">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K196">
+        <f t="shared" ref="K196:K259" si="22">I196*J196+C196*$C$17+D196*$D$17+E196*$E$17+F196*$F$17+G196*$G$17+H196*$H$17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K197">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K198">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K199">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K200">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K201">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K202">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K203">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K204">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K205">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K206">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K207">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K208">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K209">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K210">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K211">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K212">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K213">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K214">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K215">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K216">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K217">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K218">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K219">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K220">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K221">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K222">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K223">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K224">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K225">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K226">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K227">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K228">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K229">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K230">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K231">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K232">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K233">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K234">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K235">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K236">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K237">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K238">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K239">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K240">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K241">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K242">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K243">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K244">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K245">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K246">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K247">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K248">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K249">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K250">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K251">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K252">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K253">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K254">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K255">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K256">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K257">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K258">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K259">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K260">
+        <f t="shared" ref="K260:K323" si="23">I260*J260+C260*$C$17+D260*$D$17+E260*$E$17+F260*$F$17+G260*$G$17+H260*$H$17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K261">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K262">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K263">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K264">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K265">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K266">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K267">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K268">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K269">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K270">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K271">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K272">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K273">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K274">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K275">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K276">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K277">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K278">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K279">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K280">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K281">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K282">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K283">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K284">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K285">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K286">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K287">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K288">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K289">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K290">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K291">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K292">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K293">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K294">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K295">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K296">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K297">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K298">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K299">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K300">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K301">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K302">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K303">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K304">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K305">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K306">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K307">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K308">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K309">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K310">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K311">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K312">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K313">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K314">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K315">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K316">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K317">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K318">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K319">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K320">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K321">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K322">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K323">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K324">
+        <f t="shared" ref="K324:K325" si="24">I324*J324+C324*$C$17+D324*$D$17+E324*$E$17+F324*$F$17+G324*$G$17+H324*$H$17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K325">
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Document/分数统计.xlsx
+++ b/Document/分数统计.xlsx
@@ -442,13 +442,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V325"/>
+  <dimension ref="A1:V330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="17" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="17" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="F63" sqref="F63"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -716,1557 +716,1548 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>27</v>
-      </c>
-      <c r="B18">
-        <v>60</v>
-      </c>
-      <c r="C18">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="H18">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <f>B18*$B$17</f>
-        <v>31907.999999999996</v>
+        <f t="shared" ref="I18:I22" si="2">B18*$B$17</f>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18">
-        <f t="shared" ref="K18:K68" si="2">I18*J18+C18*$C$17+D18*$D$17+E18*$E$17+F18*$F$17+G18*$G$17+H18*$H$17</f>
-        <v>49908</v>
+        <f t="shared" ref="K18:K22" si="3">I18*J18+C18*$C$17+D18*$D$17+E18*$E$17+F18*$F$17+G18*$G$17+H18*$H$17</f>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <f>I18*J18*L18+C18*$C$17+D18*$D$17+E18*$E$17+F18*$F$17+H18*$H$17</f>
-        <v>49908</v>
+        <f t="shared" ref="M18:M22" si="4">I18*J18*L18+C18*$C$17+D18*$D$17+E18*$E$17+F18*$F$17+H18*$H$17</f>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>1.5</v>
       </c>
       <c r="O18">
-        <f>I18*J18*N18+C18*$C$17+D18*$D$17+E18*$E$17+F18*$F$17+H18*$H$17</f>
-        <v>65862</v>
+        <f t="shared" ref="O18:O22" si="5">I18*J18*N18+C18*$C$17+D18*$D$17+E18*$E$17+F18*$F$17+H18*$H$17</f>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>2</v>
       </c>
       <c r="Q18">
-        <f>I18*J18*P18+C18*$C$17+D18*$D$17+E18*$E$17+F18*$F$17+H18*$H$17</f>
-        <v>81816</v>
+        <f t="shared" ref="Q18:Q22" si="6">I18*J18*P18+C18*$C$17+D18*$D$17+E18*$E$17+F18*$F$17+H18*$H$17</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>60</v>
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
       </c>
       <c r="H19">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I19">
-        <f t="shared" ref="I19:I36" si="3">B19*$B$17</f>
-        <v>31907.999999999996</v>
+        <f t="shared" si="2"/>
+        <v>18613</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
-        <v>41908</v>
+        <f t="shared" si="3"/>
+        <v>31213</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <f t="shared" ref="M19:M36" si="4">I19*J19*L19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+H19*$H$17</f>
-        <v>41908</v>
+        <f t="shared" si="4"/>
+        <v>31213</v>
       </c>
       <c r="N19">
         <v>1.5</v>
       </c>
       <c r="O19">
-        <f t="shared" ref="O19:O36" si="5">I19*J19*N19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+H19*$H$17</f>
-        <v>57861.999999999993</v>
+        <f t="shared" si="5"/>
+        <v>40519.5</v>
       </c>
       <c r="P19">
         <v>2</v>
       </c>
       <c r="Q19">
-        <f t="shared" ref="Q19:Q36" si="6">I19*J19*P19+C19*$C$17+D19*$D$17+E19*$E$17+F19*$F$17+H19*$H$17</f>
-        <v>73816</v>
+        <f t="shared" si="6"/>
+        <v>49826</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>29</v>
-      </c>
-      <c r="B20">
-        <v>15</v>
-      </c>
-      <c r="C20">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
       </c>
       <c r="I20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="3"/>
-        <v>7976.9999999999991</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="2"/>
-        <v>11177</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
         <f t="shared" si="4"/>
-        <v>11177</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>1.5</v>
       </c>
       <c r="O20">
         <f t="shared" si="5"/>
-        <v>15165.499999999998</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>2</v>
       </c>
       <c r="Q20">
         <f t="shared" si="6"/>
-        <v>19154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>31</v>
-      </c>
-      <c r="B21">
-        <v>15</v>
-      </c>
-      <c r="C21">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
       </c>
       <c r="I21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="3"/>
-        <v>7976.9999999999991</v>
-      </c>
-      <c r="J21">
-        <v>0.6</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="2"/>
-        <v>11186.199999999999</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
         <f t="shared" si="4"/>
-        <v>11186.199999999999</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>1.5</v>
       </c>
       <c r="O21">
         <f t="shared" si="5"/>
-        <v>13579.3</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>2</v>
       </c>
       <c r="Q21">
         <f t="shared" si="6"/>
-        <v>15972.399999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>32</v>
-      </c>
-      <c r="B22">
-        <v>36</v>
-      </c>
-      <c r="D22">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
       </c>
       <c r="I22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="3"/>
-        <v>19144.8</v>
-      </c>
-      <c r="J22">
-        <v>0.5</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="2"/>
-        <v>17572.400000000001</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
         <f t="shared" si="4"/>
-        <v>17572.400000000001</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>1.5</v>
       </c>
       <c r="O22">
         <f t="shared" si="5"/>
-        <v>22358.6</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>2</v>
       </c>
       <c r="Q22">
         <f t="shared" si="6"/>
-        <v>27144.799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C23">
-        <v>130</v>
+        <v>54</v>
+      </c>
+      <c r="H23">
+        <v>18</v>
       </c>
       <c r="I23">
-        <f t="shared" si="3"/>
-        <v>26589.999999999996</v>
+        <f>B23*$B$17</f>
+        <v>31907.999999999996</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23">
-        <f t="shared" si="2"/>
-        <v>52590</v>
+        <f t="shared" ref="K23:K71" si="7">I23*J23+C23*$C$17+D23*$D$17+E23*$E$17+F23*$F$17+G23*$G$17+H23*$H$17</f>
+        <v>49908</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <f t="shared" si="4"/>
-        <v>52590</v>
+        <f>I23*J23*L23+C23*$C$17+D23*$D$17+E23*$E$17+F23*$F$17+H23*$H$17</f>
+        <v>49908</v>
       </c>
       <c r="N23">
         <v>1.5</v>
       </c>
       <c r="O23">
-        <f t="shared" si="5"/>
-        <v>65885</v>
+        <f>I23*J23*N23+C23*$C$17+D23*$D$17+E23*$E$17+F23*$F$17+H23*$H$17</f>
+        <v>65862</v>
       </c>
       <c r="P23">
         <v>2</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="6"/>
-        <v>79180</v>
+        <f>I23*J23*P23+C23*$C$17+D23*$D$17+E23*$E$17+F23*$F$17+H23*$H$17</f>
+        <v>81816</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>30</v>
-      </c>
-      <c r="E24">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I24">
-        <f t="shared" si="3"/>
-        <v>15953.999999999998</v>
+        <f t="shared" ref="I24:I41" si="8">B24*$B$17</f>
+        <v>23930.999999999996</v>
       </c>
       <c r="J24">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <f t="shared" si="2"/>
-        <v>24749.399999999998</v>
+        <f t="shared" si="7"/>
+        <v>33931</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <f t="shared" si="4"/>
-        <v>24749.399999999998</v>
+        <f t="shared" ref="M24:M41" si="9">I24*J24*L24+C24*$C$17+D24*$D$17+E24*$E$17+F24*$F$17+H24*$H$17</f>
+        <v>33931</v>
       </c>
       <c r="N24">
         <v>1.5</v>
       </c>
       <c r="O24">
-        <f t="shared" si="5"/>
-        <v>33524.1</v>
+        <f t="shared" ref="O24:O41" si="10">I24*J24*N24+C24*$C$17+D24*$D$17+E24*$E$17+F24*$F$17+H24*$H$17</f>
+        <v>45896.499999999993</v>
       </c>
       <c r="P24">
         <v>2</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="6"/>
-        <v>42298.799999999996</v>
+        <f t="shared" ref="Q24:Q41" si="11">I24*J24*P24+C24*$C$17+D24*$D$17+E24*$E$17+F24*$F$17+H24*$H$17</f>
+        <v>57861.999999999993</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C25">
-        <v>46</v>
-      </c>
-      <c r="E25">
-        <v>17</v>
-      </c>
-      <c r="H25">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I25">
-        <f t="shared" si="3"/>
-        <v>26589.999999999996</v>
+        <f t="shared" si="8"/>
+        <v>7976.9999999999991</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25">
-        <f t="shared" si="2"/>
-        <v>46590</v>
+        <f t="shared" si="7"/>
+        <v>11177</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <f t="shared" si="4"/>
-        <v>46590</v>
+        <f t="shared" si="9"/>
+        <v>11177</v>
       </c>
       <c r="N25">
         <v>1.5</v>
       </c>
       <c r="O25">
-        <f t="shared" si="5"/>
-        <v>59884.999999999993</v>
+        <f t="shared" si="10"/>
+        <v>15165.499999999998</v>
       </c>
       <c r="P25">
         <v>2</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="6"/>
-        <v>73180</v>
+        <f t="shared" si="11"/>
+        <v>19154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I26">
-        <f t="shared" si="3"/>
-        <v>23930.999999999996</v>
+        <f t="shared" si="8"/>
+        <v>7976.9999999999991</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K26">
-        <f t="shared" si="2"/>
-        <v>31130.999999999996</v>
+        <f t="shared" si="7"/>
+        <v>11186.199999999999</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <f t="shared" si="4"/>
-        <v>31130.999999999996</v>
+        <f t="shared" si="9"/>
+        <v>11186.199999999999</v>
       </c>
       <c r="N26">
         <v>1.5</v>
       </c>
       <c r="O26">
-        <f t="shared" si="5"/>
-        <v>43096.499999999993</v>
+        <f t="shared" si="10"/>
+        <v>13579.3</v>
       </c>
       <c r="P26">
         <v>2</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="6"/>
-        <v>55061.999999999993</v>
+        <f t="shared" si="11"/>
+        <v>15972.399999999998</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I27">
-        <f t="shared" si="3"/>
-        <v>29248.999999999996</v>
+        <f t="shared" si="8"/>
+        <v>19144.8</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K27">
-        <f t="shared" si="2"/>
-        <v>36849</v>
+        <f t="shared" si="7"/>
+        <v>17572.400000000001</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <f t="shared" si="4"/>
-        <v>36849</v>
+        <f t="shared" si="9"/>
+        <v>17572.400000000001</v>
       </c>
       <c r="N27">
         <v>1.5</v>
       </c>
       <c r="O27">
-        <f t="shared" si="5"/>
-        <v>51473.499999999993</v>
+        <f t="shared" si="10"/>
+        <v>22358.6</v>
       </c>
       <c r="P27">
         <v>2</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="6"/>
-        <v>66098</v>
+        <f t="shared" si="11"/>
+        <v>27144.799999999999</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C28">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="I28">
-        <f t="shared" si="3"/>
-        <v>15953.999999999998</v>
+        <f t="shared" si="8"/>
+        <v>21272</v>
       </c>
       <c r="J28">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <f t="shared" si="2"/>
-        <v>20167.799999999996</v>
+        <f t="shared" si="7"/>
+        <v>47272</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <f t="shared" si="4"/>
-        <v>20167.799999999996</v>
+        <f t="shared" si="9"/>
+        <v>47272</v>
       </c>
       <c r="N28">
         <v>1.5</v>
       </c>
       <c r="O28">
-        <f t="shared" si="5"/>
-        <v>25751.699999999997</v>
+        <f t="shared" si="10"/>
+        <v>57908</v>
       </c>
       <c r="P28">
         <v>2</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="6"/>
-        <v>31335.599999999995</v>
+        <f t="shared" si="11"/>
+        <v>68544</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>45</v>
-      </c>
-      <c r="C29">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E29">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="H29">
+        <v>9</v>
       </c>
       <c r="I29">
-        <f t="shared" si="3"/>
-        <v>23930.999999999996</v>
+        <f t="shared" si="8"/>
+        <v>18613</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K29">
-        <f t="shared" si="2"/>
-        <v>40731</v>
+        <f t="shared" si="7"/>
+        <v>23829.1</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <f t="shared" si="4"/>
-        <v>40731</v>
+        <f t="shared" si="9"/>
+        <v>23829.1</v>
       </c>
       <c r="N29">
         <v>1.5</v>
       </c>
       <c r="O29">
-        <f t="shared" si="5"/>
-        <v>52696.499999999993</v>
+        <f t="shared" si="10"/>
+        <v>30343.649999999998</v>
       </c>
       <c r="P29">
         <v>2</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="6"/>
-        <v>64661.999999999993</v>
+        <f t="shared" si="11"/>
+        <v>36858.199999999997</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>50</v>
       </c>
-      <c r="D30">
-        <v>4</v>
+      <c r="C30">
+        <v>46</v>
       </c>
       <c r="E30">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
       </c>
       <c r="I30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>26589.999999999996</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30">
-        <f t="shared" si="2"/>
-        <v>37790</v>
+        <f t="shared" si="7"/>
+        <v>46590</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <f t="shared" si="4"/>
-        <v>37790</v>
+        <f t="shared" si="9"/>
+        <v>46590</v>
       </c>
       <c r="N30">
         <v>1.5</v>
       </c>
       <c r="O30">
-        <f t="shared" si="5"/>
-        <v>51084.999999999993</v>
+        <f t="shared" si="10"/>
+        <v>59884.999999999993</v>
       </c>
       <c r="P30">
         <v>2</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="6"/>
-        <v>64379.999999999993</v>
+        <f t="shared" si="11"/>
+        <v>73180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>50</v>
-      </c>
-      <c r="E31">
-        <v>9</v>
+        <v>45</v>
+      </c>
+      <c r="C31">
+        <v>36</v>
       </c>
       <c r="I31">
-        <f t="shared" si="3"/>
-        <v>26589.999999999996</v>
+        <f t="shared" si="8"/>
+        <v>23930.999999999996</v>
       </c>
       <c r="J31">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K31">
-        <f t="shared" si="2"/>
-        <v>24872</v>
+        <f t="shared" si="7"/>
+        <v>31130.999999999996</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <f t="shared" si="4"/>
-        <v>24872</v>
+        <f t="shared" si="9"/>
+        <v>31130.999999999996</v>
       </c>
       <c r="N31">
         <v>1.5</v>
       </c>
       <c r="O31">
-        <f t="shared" si="5"/>
-        <v>35508</v>
+        <f t="shared" si="10"/>
+        <v>43096.499999999993</v>
       </c>
       <c r="P31">
         <v>2</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="6"/>
-        <v>46144</v>
+        <f t="shared" si="11"/>
+        <v>55061.999999999993</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>50</v>
-      </c>
-      <c r="C32">
-        <v>126</v>
+        <v>55</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I32">
-        <f t="shared" si="3"/>
-        <v>26589.999999999996</v>
+        <f t="shared" si="8"/>
+        <v>29248.999999999996</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32">
-        <f t="shared" si="2"/>
-        <v>58990</v>
+        <f t="shared" si="7"/>
+        <v>36849</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <f t="shared" si="4"/>
-        <v>58990</v>
+        <f t="shared" si="9"/>
+        <v>36849</v>
       </c>
       <c r="N32">
         <v>1.5</v>
       </c>
       <c r="O32">
-        <f t="shared" si="5"/>
-        <v>72285</v>
+        <f t="shared" si="10"/>
+        <v>51473.499999999993</v>
       </c>
       <c r="P32">
         <v>2</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="6"/>
-        <v>85580</v>
+        <f t="shared" si="11"/>
+        <v>66098</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33">
         <v>45</v>
       </c>
-      <c r="B33">
-        <v>40</v>
-      </c>
-      <c r="E33">
-        <v>24</v>
-      </c>
       <c r="I33">
-        <f t="shared" si="3"/>
-        <v>21272</v>
+        <f t="shared" si="8"/>
+        <v>15953.999999999998</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K33">
-        <f t="shared" si="2"/>
-        <v>30872</v>
+        <f t="shared" si="7"/>
+        <v>20167.799999999996</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <f t="shared" si="4"/>
-        <v>30872</v>
+        <f t="shared" si="9"/>
+        <v>20167.799999999996</v>
       </c>
       <c r="N33">
         <v>1.5</v>
       </c>
       <c r="O33">
-        <f t="shared" si="5"/>
-        <v>41508</v>
+        <f t="shared" si="10"/>
+        <v>25751.699999999997</v>
       </c>
       <c r="P33">
         <v>2</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="6"/>
-        <v>52144</v>
+        <f t="shared" si="11"/>
+        <v>31335.599999999995</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C34">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E34">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I34">
-        <f t="shared" si="3"/>
-        <v>18613</v>
+        <f t="shared" si="8"/>
+        <v>23930.999999999996</v>
       </c>
       <c r="J34">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <f t="shared" si="2"/>
-        <v>177917</v>
+        <f t="shared" si="7"/>
+        <v>40731</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <f t="shared" si="4"/>
-        <v>177917</v>
+        <f t="shared" si="9"/>
+        <v>40731</v>
       </c>
       <c r="N34">
         <v>1.5</v>
       </c>
       <c r="O34">
-        <f t="shared" si="5"/>
-        <v>261675.5</v>
+        <f t="shared" si="10"/>
+        <v>52696.499999999993</v>
       </c>
       <c r="P34">
         <v>2</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="6"/>
-        <v>345434</v>
+        <f t="shared" si="11"/>
+        <v>64661.999999999993</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>5</v>
-      </c>
-      <c r="H35">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I35">
-        <f t="shared" si="3"/>
-        <v>15953.999999999998</v>
+        <f t="shared" si="8"/>
+        <v>26589.999999999996</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35">
-        <f t="shared" si="2"/>
-        <v>26354</v>
+        <f t="shared" si="7"/>
+        <v>37790</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <f t="shared" si="4"/>
-        <v>26354</v>
+        <f t="shared" si="9"/>
+        <v>37790</v>
       </c>
       <c r="N35">
         <v>1.5</v>
       </c>
       <c r="O35">
-        <f t="shared" si="5"/>
-        <v>34331</v>
+        <f t="shared" si="10"/>
+        <v>51084.999999999993</v>
       </c>
       <c r="P35">
         <v>2</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="6"/>
-        <v>42308</v>
+        <f t="shared" si="11"/>
+        <v>64379.999999999993</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>50</v>
       </c>
-      <c r="C36">
-        <v>60</v>
-      </c>
       <c r="E36">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>26589.999999999996</v>
       </c>
       <c r="J36">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K36">
-        <f t="shared" si="2"/>
-        <v>43931</v>
+        <f t="shared" si="7"/>
+        <v>24872</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <f t="shared" si="4"/>
-        <v>43931</v>
+        <f t="shared" si="9"/>
+        <v>24872</v>
       </c>
       <c r="N36">
         <v>1.5</v>
       </c>
       <c r="O36">
-        <f t="shared" si="5"/>
-        <v>55896.499999999993</v>
+        <f t="shared" si="10"/>
+        <v>35508</v>
       </c>
       <c r="P36">
         <v>2</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="6"/>
-        <v>67862</v>
+        <f t="shared" si="11"/>
+        <v>46144</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B37">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="E37">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I37">
-        <f t="shared" ref="I37:I60" si="7">B37*$B$17</f>
-        <v>21272</v>
+        <f t="shared" si="8"/>
+        <v>26589.999999999996</v>
       </c>
       <c r="J37">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
-        <v>22363.199999999997</v>
+        <f t="shared" si="7"/>
+        <v>58990</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <f t="shared" ref="M37:M60" si="8">I37*J37*L37+C37*$C$17+D37*$D$17+E37*$E$17+F37*$F$17+H37*$H$17</f>
-        <v>22363.199999999997</v>
+        <f t="shared" si="9"/>
+        <v>58990</v>
       </c>
       <c r="N37">
         <v>1.5</v>
       </c>
       <c r="O37">
-        <f t="shared" ref="O37:O60" si="9">I37*J37*N37+C37*$C$17+D37*$D$17+E37*$E$17+F37*$F$17+H37*$H$17</f>
-        <v>28744.799999999999</v>
+        <f t="shared" si="10"/>
+        <v>72285</v>
       </c>
       <c r="P37">
         <v>2</v>
       </c>
       <c r="Q37">
-        <f t="shared" ref="Q37:Q60" si="10">I37*J37*P37+C37*$C$17+D37*$D$17+E37*$E$17+F37*$F$17+H37*$H$17</f>
-        <v>35126.399999999994</v>
+        <f t="shared" si="11"/>
+        <v>85580</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>50</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E38">
-        <v>32</v>
-      </c>
-      <c r="H38">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I38">
+        <f t="shared" si="8"/>
+        <v>21272</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="7"/>
-        <v>26589.999999999996</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="2"/>
-        <v>47790</v>
+        <v>30872</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="M38">
-        <f t="shared" si="8"/>
-        <v>47790</v>
+        <f t="shared" si="9"/>
+        <v>30872</v>
       </c>
       <c r="N38">
         <v>1.5</v>
       </c>
       <c r="O38">
-        <f t="shared" si="9"/>
-        <v>61084.999999999993</v>
+        <f t="shared" si="10"/>
+        <v>41508</v>
       </c>
       <c r="P38">
         <v>2</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="10"/>
-        <v>74380</v>
+        <f t="shared" si="11"/>
+        <v>52144</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>35</v>
       </c>
       <c r="C39">
-        <v>20</v>
-      </c>
-      <c r="H39">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <v>7</v>
       </c>
       <c r="I39">
+        <f t="shared" si="8"/>
+        <v>18613</v>
+      </c>
+      <c r="J39">
+        <v>9</v>
+      </c>
+      <c r="K39">
         <f t="shared" si="7"/>
-        <v>18613</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="2"/>
-        <v>31413</v>
+        <v>177917</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39">
-        <f t="shared" si="8"/>
-        <v>31413</v>
+        <f t="shared" si="9"/>
+        <v>177917</v>
       </c>
       <c r="N39">
         <v>1.5</v>
       </c>
       <c r="O39">
-        <f t="shared" si="9"/>
-        <v>40719.5</v>
+        <f t="shared" si="10"/>
+        <v>261675.5</v>
       </c>
       <c r="P39">
         <v>2</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="10"/>
-        <v>50026</v>
+        <f t="shared" si="11"/>
+        <v>345434</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>40</v>
-      </c>
-      <c r="C40">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
       </c>
       <c r="E40">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H40">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I40">
+        <f t="shared" si="8"/>
+        <v>15953.999999999998</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
         <f t="shared" si="7"/>
-        <v>21272</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="2"/>
-        <v>30272</v>
+        <v>26354</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="M40">
-        <f t="shared" si="8"/>
-        <v>30272</v>
+        <f t="shared" si="9"/>
+        <v>26354</v>
       </c>
       <c r="N40">
         <v>1.5</v>
       </c>
       <c r="O40">
-        <f t="shared" si="9"/>
-        <v>40908</v>
+        <f t="shared" si="10"/>
+        <v>34331</v>
       </c>
       <c r="P40">
         <v>2</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="10"/>
-        <v>51544</v>
+        <f t="shared" si="11"/>
+        <v>42308</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I41">
+        <f t="shared" si="8"/>
+        <v>26589.999999999996</v>
+      </c>
+      <c r="J41">
+        <v>0.9</v>
+      </c>
+      <c r="K41">
         <f t="shared" si="7"/>
-        <v>22335.599999999999</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="2"/>
-        <v>27935.599999999999</v>
+        <v>43931</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
       <c r="M41">
-        <f t="shared" si="8"/>
-        <v>27935.599999999999</v>
+        <f t="shared" si="9"/>
+        <v>43931</v>
       </c>
       <c r="N41">
         <v>1.5</v>
       </c>
       <c r="O41">
-        <f t="shared" si="9"/>
-        <v>39103.399999999994</v>
+        <f t="shared" si="10"/>
+        <v>55896.499999999993</v>
       </c>
       <c r="P41">
         <v>2</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="10"/>
-        <v>50271.199999999997</v>
+        <f t="shared" si="11"/>
+        <v>67862</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>40</v>
       </c>
-      <c r="D42">
-        <v>4</v>
+      <c r="C42">
+        <v>16</v>
       </c>
       <c r="E42">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I42">
+        <f t="shared" ref="I42:I65" si="12">B42*$B$17</f>
+        <v>21272</v>
+      </c>
+      <c r="J42">
+        <v>0.6</v>
+      </c>
+      <c r="K42">
         <f t="shared" si="7"/>
-        <v>21272</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="2"/>
-        <v>30872</v>
+        <v>22363.199999999997</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
       <c r="M42">
-        <f t="shared" si="8"/>
-        <v>30872</v>
+        <f t="shared" ref="M42:M65" si="13">I42*J42*L42+C42*$C$17+D42*$D$17+E42*$E$17+F42*$F$17+H42*$H$17</f>
+        <v>22363.199999999997</v>
       </c>
       <c r="N42">
         <v>1.5</v>
       </c>
       <c r="O42">
-        <f t="shared" si="9"/>
-        <v>41508</v>
+        <f t="shared" ref="O42:O65" si="14">I42*J42*N42+C42*$C$17+D42*$D$17+E42*$E$17+F42*$F$17+H42*$H$17</f>
+        <v>28744.799999999999</v>
       </c>
       <c r="P42">
         <v>2</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="10"/>
-        <v>52144</v>
+        <f t="shared" ref="Q42:Q65" si="15">I42*J42*P42+C42*$C$17+D42*$D$17+E42*$E$17+F42*$F$17+H42*$H$17</f>
+        <v>35126.399999999994</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I43">
+        <f t="shared" si="12"/>
+        <v>26589.999999999996</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
         <f t="shared" si="7"/>
-        <v>7976.9999999999991</v>
-      </c>
-      <c r="J43">
-        <v>2</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="2"/>
-        <v>46954</v>
+        <v>47790</v>
       </c>
       <c r="L43">
         <v>1</v>
       </c>
       <c r="M43">
-        <f t="shared" si="8"/>
-        <v>46954</v>
+        <f t="shared" si="13"/>
+        <v>47790</v>
       </c>
       <c r="N43">
         <v>1.5</v>
       </c>
       <c r="O43">
-        <f t="shared" si="9"/>
-        <v>54931</v>
+        <f t="shared" si="14"/>
+        <v>61084.999999999993</v>
       </c>
       <c r="P43">
         <v>2</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="10"/>
-        <v>62908</v>
-      </c>
-      <c r="R43" t="s">
-        <v>20</v>
+        <f t="shared" si="15"/>
+        <v>74380</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C44">
-        <v>36</v>
-      </c>
-      <c r="E44">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="H44">
+        <v>22</v>
       </c>
       <c r="I44">
+        <f t="shared" si="12"/>
+        <v>18613</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
         <f t="shared" si="7"/>
-        <v>23930.999999999996</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="2"/>
-        <v>41531</v>
+        <v>31413</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44">
-        <f t="shared" si="8"/>
-        <v>41531</v>
+        <f t="shared" si="13"/>
+        <v>31413</v>
       </c>
       <c r="N44">
         <v>1.5</v>
       </c>
       <c r="O44">
-        <f t="shared" si="9"/>
-        <v>53496.499999999993</v>
+        <f t="shared" si="14"/>
+        <v>40719.5</v>
       </c>
       <c r="P44">
         <v>2</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="10"/>
-        <v>65461.999999999993</v>
+        <f t="shared" si="15"/>
+        <v>50026</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B45">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="C45">
+        <v>9</v>
+      </c>
+      <c r="E45">
+        <v>9</v>
       </c>
       <c r="H45">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I45">
+        <f t="shared" si="12"/>
+        <v>21272</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
         <f t="shared" si="7"/>
-        <v>10636</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="2"/>
-        <v>13436</v>
+        <v>30272</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45">
-        <f t="shared" si="8"/>
-        <v>13436</v>
+        <f t="shared" si="13"/>
+        <v>30272</v>
       </c>
       <c r="N45">
         <v>1.5</v>
       </c>
       <c r="O45">
-        <f t="shared" si="9"/>
-        <v>18754</v>
+        <f t="shared" si="14"/>
+        <v>40908</v>
       </c>
       <c r="P45">
         <v>2</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="10"/>
-        <v>24072</v>
+        <f t="shared" si="15"/>
+        <v>51544</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C46">
-        <v>24</v>
-      </c>
-      <c r="H46">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
       </c>
       <c r="I46">
+        <f t="shared" si="12"/>
+        <v>22335.599999999999</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
         <f t="shared" si="7"/>
-        <v>10636</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="2"/>
-        <v>20236</v>
+        <v>27935.599999999999</v>
       </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="M46">
-        <f t="shared" si="8"/>
-        <v>20236</v>
+        <f t="shared" si="13"/>
+        <v>27935.599999999999</v>
       </c>
       <c r="N46">
         <v>1.5</v>
       </c>
       <c r="O46">
-        <f t="shared" si="9"/>
-        <v>25554</v>
+        <f t="shared" si="14"/>
+        <v>39103.399999999994</v>
       </c>
       <c r="P46">
         <v>2</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="10"/>
-        <v>30872</v>
+        <f t="shared" si="15"/>
+        <v>50271.199999999997</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="B47">
+        <v>40</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>14</v>
       </c>
       <c r="I47">
+        <f t="shared" si="12"/>
+        <v>21272</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30872</v>
       </c>
       <c r="L47">
         <v>1</v>
       </c>
       <c r="M47">
-        <v>45000</v>
+        <f t="shared" si="13"/>
+        <v>30872</v>
       </c>
       <c r="N47">
         <v>1.5</v>
       </c>
       <c r="O47">
-        <v>60000</v>
+        <f t="shared" si="14"/>
+        <v>41508</v>
       </c>
       <c r="P47">
         <v>2</v>
       </c>
       <c r="Q47">
-        <v>75000</v>
+        <f t="shared" si="15"/>
+        <v>52144</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>24</v>
       </c>
       <c r="H48">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I48">
+        <f t="shared" si="12"/>
+        <v>7976.9999999999991</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
         <f t="shared" si="7"/>
-        <v>26589.999999999996</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="2"/>
-        <v>35390</v>
+        <v>46954</v>
       </c>
       <c r="L48">
         <v>1</v>
       </c>
       <c r="M48">
-        <f t="shared" si="8"/>
-        <v>35390</v>
+        <f t="shared" si="13"/>
+        <v>46954</v>
       </c>
       <c r="N48">
         <v>1.5</v>
       </c>
       <c r="O48">
-        <f t="shared" si="9"/>
-        <v>48684.999999999993</v>
+        <f t="shared" si="14"/>
+        <v>54931</v>
       </c>
       <c r="P48">
         <v>2</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="10"/>
-        <v>61979.999999999993</v>
+        <f t="shared" si="15"/>
+        <v>62908</v>
+      </c>
+      <c r="R48" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C49">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E49">
-        <v>9</v>
-      </c>
-      <c r="H49">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I49">
+        <f t="shared" si="12"/>
+        <v>23930.999999999996</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
         <f t="shared" si="7"/>
-        <v>26589.999999999996</v>
-      </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="2"/>
-        <v>42190</v>
+        <v>41531</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
       <c r="M49">
-        <f t="shared" si="8"/>
-        <v>42190</v>
+        <f t="shared" si="13"/>
+        <v>41531</v>
       </c>
       <c r="N49">
         <v>1.5</v>
       </c>
       <c r="O49">
-        <f t="shared" si="9"/>
-        <v>55484.999999999993</v>
+        <f t="shared" si="14"/>
+        <v>53496.499999999993</v>
       </c>
       <c r="P49">
         <v>2</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="10"/>
-        <v>68780</v>
+        <f t="shared" si="15"/>
+        <v>65461.999999999993</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>21</v>
-      </c>
-      <c r="D50">
-        <v>5</v>
-      </c>
-      <c r="E50">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="H50">
+        <v>7</v>
       </c>
       <c r="I50">
+        <f t="shared" si="12"/>
+        <v>10636</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
         <f t="shared" si="7"/>
-        <v>11167.8</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="2"/>
-        <v>23367.8</v>
+        <v>13436</v>
       </c>
       <c r="L50">
         <v>1</v>
       </c>
       <c r="M50">
-        <f t="shared" si="8"/>
-        <v>23367.8</v>
+        <f t="shared" si="13"/>
+        <v>13436</v>
       </c>
       <c r="N50">
         <v>1.5</v>
       </c>
       <c r="O50">
-        <f t="shared" si="9"/>
-        <v>28951.699999999997</v>
+        <f t="shared" si="14"/>
+        <v>18754</v>
       </c>
       <c r="P50">
         <v>2</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="10"/>
-        <v>34535.599999999999</v>
+        <f t="shared" si="15"/>
+        <v>24072</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B51">
         <v>20</v>
       </c>
       <c r="C51">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="H51">
+        <v>12</v>
       </c>
       <c r="I51">
+        <f t="shared" si="12"/>
+        <v>10636</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
         <f t="shared" si="7"/>
-        <v>10636</v>
-      </c>
-      <c r="J51">
-        <v>1.2</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="2"/>
-        <v>14363.199999999999</v>
+        <v>20236</v>
       </c>
       <c r="L51">
         <v>1</v>
       </c>
       <c r="M51">
-        <f t="shared" si="8"/>
-        <v>14363.199999999999</v>
+        <f t="shared" si="13"/>
+        <v>20236</v>
       </c>
       <c r="N51">
         <v>1.5</v>
       </c>
       <c r="O51">
-        <f t="shared" si="9"/>
-        <v>20744.8</v>
+        <f t="shared" si="14"/>
+        <v>25554</v>
       </c>
       <c r="P51">
         <v>2</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="10"/>
-        <v>27126.399999999998</v>
+        <f t="shared" si="15"/>
+        <v>30872</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I52">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L52">
@@ -2279,2987 +2270,3205 @@
         <v>1.5</v>
       </c>
       <c r="O52">
-        <v>55000</v>
+        <v>60000</v>
       </c>
       <c r="P52">
         <v>2</v>
       </c>
       <c r="Q52">
-        <v>65000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B53">
         <v>50</v>
       </c>
-      <c r="C53">
-        <v>136</v>
-      </c>
-      <c r="E53">
-        <v>6</v>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>12</v>
       </c>
       <c r="I53">
+        <f t="shared" si="12"/>
+        <v>26589.999999999996</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
         <f t="shared" si="7"/>
-        <v>26589.999999999996</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="2"/>
-        <v>56190</v>
+        <v>35390</v>
       </c>
       <c r="L53">
         <v>1</v>
       </c>
       <c r="M53">
-        <f t="shared" si="8"/>
-        <v>56190</v>
+        <f t="shared" si="13"/>
+        <v>35390</v>
       </c>
       <c r="N53">
         <v>1.5</v>
       </c>
       <c r="O53">
-        <f t="shared" si="9"/>
-        <v>69485</v>
+        <f t="shared" si="14"/>
+        <v>48684.999999999993</v>
       </c>
       <c r="P53">
         <v>2</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="10"/>
-        <v>82780</v>
+        <f t="shared" si="15"/>
+        <v>61979.999999999993</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>40</v>
-      </c>
-      <c r="D54">
-        <v>4</v>
+        <v>50</v>
+      </c>
+      <c r="C54">
+        <v>30</v>
+      </c>
+      <c r="E54">
+        <v>9</v>
+      </c>
+      <c r="H54">
+        <v>15</v>
       </c>
       <c r="I54">
+        <f t="shared" si="12"/>
+        <v>26589.999999999996</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
         <f t="shared" si="7"/>
-        <v>21272</v>
-      </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="2"/>
-        <v>25272</v>
+        <v>42190</v>
       </c>
       <c r="L54">
         <v>1</v>
       </c>
       <c r="M54">
-        <f t="shared" si="8"/>
-        <v>25272</v>
+        <f t="shared" si="13"/>
+        <v>42190</v>
       </c>
       <c r="N54">
         <v>1.5</v>
       </c>
       <c r="O54">
-        <f t="shared" si="9"/>
-        <v>35908</v>
+        <f t="shared" si="14"/>
+        <v>55484.999999999993</v>
       </c>
       <c r="P54">
         <v>2</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="10"/>
-        <v>46544</v>
+        <f t="shared" si="15"/>
+        <v>68780</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>25</v>
-      </c>
-      <c r="C55">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I55">
+        <f t="shared" si="12"/>
+        <v>11167.8</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
         <f t="shared" si="7"/>
-        <v>13294.999999999998</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="2"/>
-        <v>17695</v>
+        <v>23367.8</v>
       </c>
       <c r="L55">
         <v>1</v>
       </c>
       <c r="M55">
-        <f t="shared" si="8"/>
-        <v>17695</v>
+        <f t="shared" si="13"/>
+        <v>23367.8</v>
       </c>
       <c r="N55">
         <v>1.5</v>
       </c>
       <c r="O55">
-        <f t="shared" si="9"/>
-        <v>24342.499999999996</v>
+        <f t="shared" si="14"/>
+        <v>28951.699999999997</v>
       </c>
       <c r="P55">
         <v>2</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="10"/>
-        <v>30989.999999999996</v>
+        <f t="shared" si="15"/>
+        <v>34535.599999999999</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C56">
-        <v>112</v>
-      </c>
-      <c r="E56">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I56">
+        <f t="shared" si="12"/>
+        <v>10636</v>
+      </c>
+      <c r="J56">
+        <v>1.2</v>
+      </c>
+      <c r="K56">
         <f t="shared" si="7"/>
-        <v>13294.999999999998</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="2"/>
-        <v>38095</v>
+        <v>14363.199999999999</v>
       </c>
       <c r="L56">
         <v>1</v>
       </c>
       <c r="M56">
-        <f t="shared" si="8"/>
-        <v>38095</v>
+        <f t="shared" si="13"/>
+        <v>14363.199999999999</v>
       </c>
       <c r="N56">
         <v>1.5</v>
       </c>
       <c r="O56">
-        <f t="shared" si="9"/>
-        <v>44742.5</v>
+        <f t="shared" si="14"/>
+        <v>20744.8</v>
       </c>
       <c r="P56">
         <v>2</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="10"/>
-        <v>51390</v>
+        <f t="shared" si="15"/>
+        <v>27126.399999999998</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>69</v>
-      </c>
-      <c r="B57">
-        <v>25</v>
-      </c>
-      <c r="C57">
-        <v>26</v>
-      </c>
-      <c r="H57">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="I57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
         <f t="shared" si="7"/>
-        <v>13294.999999999998</v>
-      </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="2"/>
-        <v>23695</v>
+        <v>0</v>
       </c>
       <c r="L57">
         <v>1</v>
       </c>
       <c r="M57">
-        <f t="shared" si="8"/>
-        <v>23695</v>
+        <v>45000</v>
       </c>
       <c r="N57">
         <v>1.5</v>
       </c>
       <c r="O57">
-        <f t="shared" si="9"/>
-        <v>30342.499999999996</v>
+        <v>55000</v>
       </c>
       <c r="P57">
         <v>2</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="10"/>
-        <v>36990</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C58">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="E58">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I58">
+        <f t="shared" si="12"/>
+        <v>26589.999999999996</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
         <f t="shared" si="7"/>
-        <v>23930.999999999996</v>
-      </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="2"/>
-        <v>36731</v>
+        <v>56190</v>
       </c>
       <c r="L58">
         <v>1</v>
       </c>
       <c r="M58">
-        <f t="shared" si="8"/>
-        <v>36731</v>
+        <f t="shared" si="13"/>
+        <v>56190</v>
       </c>
       <c r="N58">
         <v>1.5</v>
       </c>
       <c r="O58">
-        <f t="shared" si="9"/>
-        <v>48696.499999999993</v>
+        <f t="shared" si="14"/>
+        <v>69485</v>
       </c>
       <c r="P58">
         <v>2</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="10"/>
-        <v>60661.999999999993</v>
+        <f t="shared" si="15"/>
+        <v>82780</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>35</v>
-      </c>
-      <c r="C59">
-        <v>20</v>
-      </c>
-      <c r="E59">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
       </c>
       <c r="I59">
+        <f t="shared" si="12"/>
+        <v>21272</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
         <f t="shared" si="7"/>
-        <v>18613</v>
-      </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="2"/>
-        <v>23813</v>
+        <v>25272</v>
       </c>
       <c r="L59">
         <v>1</v>
       </c>
       <c r="M59">
-        <f t="shared" si="8"/>
-        <v>23813</v>
+        <f t="shared" si="13"/>
+        <v>25272</v>
       </c>
       <c r="N59">
         <v>1.5</v>
       </c>
       <c r="O59">
-        <f t="shared" si="9"/>
-        <v>33119.5</v>
+        <f t="shared" si="14"/>
+        <v>35908</v>
       </c>
       <c r="P59">
         <v>2</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="10"/>
-        <v>42426</v>
+        <f t="shared" si="15"/>
+        <v>46544</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>45</v>
+        <v>25</v>
+      </c>
+      <c r="C60">
+        <v>12</v>
       </c>
       <c r="E60">
-        <v>3</v>
-      </c>
-      <c r="H60">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I60">
+        <f t="shared" si="12"/>
+        <v>13294.999999999998</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
         <f t="shared" si="7"/>
-        <v>23930.999999999996</v>
-      </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="2"/>
-        <v>32730.999999999996</v>
+        <v>17695</v>
       </c>
       <c r="L60">
         <v>1</v>
       </c>
       <c r="M60">
-        <f t="shared" si="8"/>
-        <v>32730.999999999996</v>
+        <f t="shared" si="13"/>
+        <v>17695</v>
       </c>
       <c r="N60">
         <v>1.5</v>
       </c>
       <c r="O60">
-        <f t="shared" si="9"/>
-        <v>44696.499999999993</v>
+        <f t="shared" si="14"/>
+        <v>24342.499999999996</v>
       </c>
       <c r="P60">
         <v>2</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="10"/>
-        <v>56661.999999999993</v>
+        <f t="shared" si="15"/>
+        <v>30989.999999999996</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C61">
-        <v>28</v>
+        <v>112</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
       </c>
       <c r="I61">
-        <f t="shared" ref="I61:I68" si="11">B61*$B$17</f>
-        <v>15953.999999999998</v>
+        <f t="shared" si="12"/>
+        <v>13294.999999999998</v>
       </c>
       <c r="J61">
         <v>1</v>
       </c>
       <c r="K61">
-        <f t="shared" si="2"/>
-        <v>21554</v>
+        <f t="shared" si="7"/>
+        <v>38095</v>
       </c>
       <c r="L61">
         <v>1</v>
       </c>
       <c r="M61">
-        <f t="shared" ref="M61:M67" si="12">I61*J61*L61+C61*$C$17+D61*$D$17+E61*$E$17+F61*$F$17+H61*$H$17</f>
-        <v>21554</v>
+        <f t="shared" si="13"/>
+        <v>38095</v>
       </c>
       <c r="N61">
         <v>1.5</v>
       </c>
       <c r="O61">
-        <f t="shared" ref="O61:O67" si="13">I61*J61*N61+C61*$C$17+D61*$D$17+E61*$E$17+F61*$F$17+H61*$H$17</f>
-        <v>29530.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>44742.5</v>
       </c>
       <c r="P61">
         <v>2</v>
       </c>
       <c r="Q61">
-        <f t="shared" ref="Q61:Q67" si="14">I61*J61*P61+C61*$C$17+D61*$D$17+E61*$E$17+F61*$F$17+H61*$H$17</f>
-        <v>37508</v>
+        <f t="shared" si="15"/>
+        <v>51390</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>35</v>
-      </c>
-      <c r="D62">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="C62">
+        <v>26</v>
       </c>
       <c r="H62">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I62">
-        <f t="shared" si="11"/>
-        <v>18613</v>
+        <f t="shared" si="12"/>
+        <v>13294.999999999998</v>
       </c>
       <c r="J62">
         <v>1</v>
       </c>
       <c r="K62">
-        <f t="shared" si="2"/>
-        <v>31813</v>
+        <f t="shared" si="7"/>
+        <v>23695</v>
       </c>
       <c r="L62">
         <v>1</v>
       </c>
       <c r="M62">
-        <f t="shared" si="12"/>
-        <v>31813</v>
+        <f t="shared" si="13"/>
+        <v>23695</v>
       </c>
       <c r="N62">
         <v>1.5</v>
       </c>
       <c r="O62">
-        <f t="shared" si="13"/>
-        <v>41119.5</v>
+        <f t="shared" si="14"/>
+        <v>30342.499999999996</v>
       </c>
       <c r="P62">
         <v>2</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="14"/>
-        <v>50426</v>
+        <f t="shared" si="15"/>
+        <v>36990</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C63">
-        <v>135</v>
+        <v>56</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
       </c>
       <c r="I63">
-        <f t="shared" si="11"/>
-        <v>15953.999999999998</v>
+        <f t="shared" si="12"/>
+        <v>23930.999999999996</v>
       </c>
       <c r="J63">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K63">
-        <f t="shared" si="2"/>
-        <v>46144.799999999996</v>
+        <f t="shared" si="7"/>
+        <v>36731</v>
       </c>
       <c r="L63">
         <v>1</v>
       </c>
       <c r="M63">
-        <f t="shared" si="12"/>
-        <v>46144.799999999996</v>
+        <f t="shared" si="13"/>
+        <v>36731</v>
       </c>
       <c r="N63">
         <v>1.5</v>
       </c>
       <c r="O63">
-        <f t="shared" si="13"/>
-        <v>55717.2</v>
+        <f t="shared" si="14"/>
+        <v>48696.499999999993</v>
       </c>
       <c r="P63">
         <v>2</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="14"/>
-        <v>65289.599999999991</v>
+        <f t="shared" si="15"/>
+        <v>60661.999999999993</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>33</v>
-      </c>
-      <c r="D64">
+        <v>35</v>
+      </c>
+      <c r="C64">
+        <v>20</v>
+      </c>
+      <c r="E64">
         <v>3</v>
       </c>
       <c r="I64">
-        <f t="shared" si="11"/>
-        <v>17549.399999999998</v>
+        <f t="shared" si="12"/>
+        <v>18613</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="K64">
-        <f t="shared" si="2"/>
-        <v>20549.399999999998</v>
+        <f t="shared" si="7"/>
+        <v>23813</v>
       </c>
       <c r="L64">
         <v>1</v>
       </c>
       <c r="M64">
-        <f t="shared" si="12"/>
-        <v>20549.399999999998</v>
+        <f t="shared" si="13"/>
+        <v>23813</v>
       </c>
       <c r="N64">
         <v>1.5</v>
       </c>
       <c r="O64">
-        <f t="shared" si="13"/>
-        <v>29324.1</v>
+        <f t="shared" si="14"/>
+        <v>33119.5</v>
       </c>
       <c r="P64">
         <v>2</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="14"/>
-        <v>38098.799999999996</v>
+        <f t="shared" si="15"/>
+        <v>42426</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>50</v>
-      </c>
-      <c r="C65">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="H65">
+        <v>19</v>
       </c>
       <c r="I65">
-        <f t="shared" si="11"/>
-        <v>26589.999999999996</v>
+        <f t="shared" si="12"/>
+        <v>23930.999999999996</v>
       </c>
       <c r="J65">
         <v>1</v>
       </c>
       <c r="K65">
-        <f t="shared" si="2"/>
-        <v>30189.999999999996</v>
+        <f t="shared" si="7"/>
+        <v>32730.999999999996</v>
       </c>
       <c r="L65">
         <v>1</v>
       </c>
       <c r="M65">
-        <f t="shared" si="12"/>
-        <v>30189.999999999996</v>
+        <f t="shared" si="13"/>
+        <v>32730.999999999996</v>
       </c>
       <c r="N65">
         <v>1.5</v>
       </c>
       <c r="O65">
-        <f t="shared" si="13"/>
-        <v>43484.999999999993</v>
+        <f t="shared" si="14"/>
+        <v>44696.499999999993</v>
       </c>
       <c r="P65">
         <v>2</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="14"/>
-        <v>56779.999999999993</v>
+        <f t="shared" si="15"/>
+        <v>56661.999999999993</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>40</v>
-      </c>
-      <c r="D66">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="C66">
+        <v>28</v>
       </c>
       <c r="I66">
-        <f t="shared" si="11"/>
-        <v>21272</v>
+        <f t="shared" ref="I66:I73" si="16">B66*$B$17</f>
+        <v>15953.999999999998</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="K66">
-        <f t="shared" si="2"/>
-        <v>25272</v>
+        <f t="shared" si="7"/>
+        <v>21554</v>
       </c>
       <c r="L66">
         <v>1</v>
       </c>
       <c r="M66">
-        <f t="shared" si="12"/>
-        <v>25272</v>
+        <f t="shared" ref="M66:M72" si="17">I66*J66*L66+C66*$C$17+D66*$D$17+E66*$E$17+F66*$F$17+H66*$H$17</f>
+        <v>21554</v>
       </c>
       <c r="N66">
         <v>1.5</v>
       </c>
       <c r="O66">
-        <f t="shared" si="13"/>
-        <v>35908</v>
+        <f t="shared" ref="O66:O72" si="18">I66*J66*N66+C66*$C$17+D66*$D$17+E66*$E$17+F66*$F$17+H66*$H$17</f>
+        <v>29530.999999999996</v>
       </c>
       <c r="P66">
         <v>2</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="14"/>
-        <v>46544</v>
+        <f t="shared" ref="Q66:Q72" si="19">I66*J66*P66+C66*$C$17+D66*$D$17+E66*$E$17+F66*$F$17+H66*$H$17</f>
+        <v>37508</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>50</v>
-      </c>
-      <c r="C67">
-        <v>78</v>
-      </c>
-      <c r="E67">
+        <v>35</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="H67">
         <v>8</v>
       </c>
-      <c r="H67">
-        <v>3</v>
-      </c>
       <c r="I67">
-        <f t="shared" si="11"/>
-        <v>26589.999999999996</v>
+        <f t="shared" si="16"/>
+        <v>18613</v>
       </c>
       <c r="J67">
         <v>1</v>
       </c>
       <c r="K67">
-        <f>I67*J67+C67*$C$17+D67*$D$17+E67*$E$17+F67*$F$17+G67*$G$17+H67*$H$17</f>
-        <v>46590</v>
+        <f t="shared" si="7"/>
+        <v>31813</v>
       </c>
       <c r="L67">
         <v>1</v>
       </c>
       <c r="M67">
-        <f t="shared" si="12"/>
-        <v>46590</v>
+        <f t="shared" si="17"/>
+        <v>31813</v>
       </c>
       <c r="N67">
         <v>1.5</v>
       </c>
       <c r="O67">
-        <f t="shared" si="13"/>
-        <v>59884.999999999993</v>
+        <f t="shared" si="18"/>
+        <v>41119.5</v>
       </c>
       <c r="P67">
         <v>2</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="14"/>
-        <v>73180</v>
+        <f t="shared" si="19"/>
+        <v>50426</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>80</v>
+        <v>75</v>
+      </c>
+      <c r="B68">
+        <v>30</v>
+      </c>
+      <c r="C68">
+        <v>135</v>
       </c>
       <c r="I68">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>15953.999999999998</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K68">
-        <f t="shared" ref="K68:K131" si="15">I68*J68+C68*$C$17+D68*$D$17+E68*$E$17+F68*$F$17+G68*$G$17+H68*$H$17</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>46144.799999999996</v>
       </c>
       <c r="L68">
         <v>1</v>
       </c>
       <c r="M68">
-        <v>25000</v>
+        <f t="shared" si="17"/>
+        <v>46144.799999999996</v>
       </c>
       <c r="N68">
         <v>1.5</v>
       </c>
       <c r="O68">
-        <v>37500</v>
+        <f t="shared" si="18"/>
+        <v>55717.2</v>
       </c>
       <c r="P68">
         <v>2</v>
       </c>
       <c r="Q68">
-        <v>50000</v>
+        <f t="shared" si="19"/>
+        <v>65289.599999999991</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>12</v>
-      </c>
-      <c r="G69">
-        <v>12</v>
+        <v>33</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
       </c>
       <c r="I69">
-        <f t="shared" ref="I69:I88" si="16">B69*$B$17</f>
-        <v>6381.5999999999995</v>
+        <f t="shared" si="16"/>
+        <v>17549.399999999998</v>
       </c>
       <c r="J69">
         <v>1</v>
       </c>
       <c r="K69">
-        <f t="shared" ref="K69:K88" si="17">I69*J69+C69*$C$17+D69*$D$17+E69*$E$17+F69*$F$17+G69*$G$17+H69*$H$17</f>
-        <v>9981.5999999999985</v>
+        <f t="shared" si="7"/>
+        <v>20549.399999999998</v>
       </c>
       <c r="L69">
         <v>1</v>
       </c>
       <c r="M69">
-        <f>I69*J69*L69+C69*$C$17+D69*$D$17+E69*$E$17+F69*$F$17+G69*$G$17+H69*$H$17</f>
-        <v>9981.5999999999985</v>
+        <f t="shared" si="17"/>
+        <v>20549.399999999998</v>
       </c>
       <c r="N69">
         <v>1.5</v>
       </c>
       <c r="O69">
-        <f>I69*J69*N69+C69*$C$17+D69*$D$17+E69*$E$17+F69*$F$17+G69*$G$17+H69*$H$17</f>
-        <v>13172.4</v>
+        <f t="shared" si="18"/>
+        <v>29324.1</v>
       </c>
       <c r="P69">
         <v>2</v>
       </c>
       <c r="Q69">
-        <f>I69*J69*P69+C69*$C$17+D69*$D$17+E69*$E$17+F69*$F$17+G69*$G$17+H69*$H$17</f>
-        <v>16363.199999999999</v>
+        <f t="shared" si="19"/>
+        <v>38098.799999999996</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>12</v>
-      </c>
-      <c r="G70">
+        <v>50</v>
+      </c>
+      <c r="C70">
         <v>18</v>
       </c>
       <c r="I70">
         <f t="shared" si="16"/>
-        <v>6381.5999999999995</v>
+        <v>26589.999999999996</v>
       </c>
       <c r="J70">
         <v>1</v>
       </c>
       <c r="K70">
+        <f t="shared" si="7"/>
+        <v>30189.999999999996</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
         <f t="shared" si="17"/>
-        <v>11781.599999999999</v>
-      </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70">
-        <f t="shared" ref="M70:M89" si="18">I70*J70*L70+C70*$C$17+D70*$D$17+E70*$E$17+F70*$F$17+G70*$G$17+H70*$H$17</f>
-        <v>11781.599999999999</v>
+        <v>30189.999999999996</v>
       </c>
       <c r="N70">
         <v>1.5</v>
       </c>
       <c r="O70">
-        <f t="shared" ref="O70:O88" si="19">I70*J70*N70+C70*$C$17+D70*$D$17+E70*$E$17+F70*$F$17+G70*$G$17+H70*$H$17</f>
-        <v>14972.4</v>
+        <f t="shared" si="18"/>
+        <v>43484.999999999993</v>
       </c>
       <c r="P70">
         <v>2</v>
       </c>
       <c r="Q70">
-        <f t="shared" ref="Q70:Q88" si="20">I70*J70*P70+C70*$C$17+D70*$D$17+E70*$E$17+F70*$F$17+G70*$G$17+H70*$H$17</f>
-        <v>18163.199999999997</v>
+        <f t="shared" si="19"/>
+        <v>56779.999999999993</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>10</v>
-      </c>
-      <c r="G71">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
       </c>
       <c r="I71">
         <f t="shared" si="16"/>
-        <v>5318</v>
+        <v>21272</v>
       </c>
       <c r="J71">
         <v>1</v>
       </c>
       <c r="K71">
+        <f t="shared" si="7"/>
+        <v>25272</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
         <f t="shared" si="17"/>
-        <v>14318</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71">
+        <v>25272</v>
+      </c>
+      <c r="N71">
+        <v>1.5</v>
+      </c>
+      <c r="O71">
         <f t="shared" si="18"/>
-        <v>14318</v>
-      </c>
-      <c r="N71">
-        <v>1.5</v>
-      </c>
-      <c r="O71">
+        <v>35908</v>
+      </c>
+      <c r="P71">
+        <v>2</v>
+      </c>
+      <c r="Q71">
         <f t="shared" si="19"/>
-        <v>16977</v>
-      </c>
-      <c r="P71">
-        <v>2</v>
-      </c>
-      <c r="Q71">
-        <f t="shared" si="20"/>
-        <v>19636</v>
+        <v>46544</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>18</v>
-      </c>
-      <c r="G72">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="C72">
+        <v>78</v>
+      </c>
+      <c r="E72">
+        <v>8</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
       </c>
       <c r="I72">
         <f t="shared" si="16"/>
-        <v>9572.4</v>
+        <v>26589.999999999996</v>
       </c>
       <c r="J72">
         <v>1</v>
       </c>
       <c r="K72">
+        <f>I72*J72+C72*$C$17+D72*$D$17+E72*$E$17+F72*$F$17+G72*$G$17+H72*$H$17</f>
+        <v>46590</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
         <f t="shared" si="17"/>
-        <v>21572.400000000001</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72">
+        <v>46590</v>
+      </c>
+      <c r="N72">
+        <v>1.5</v>
+      </c>
+      <c r="O72">
         <f t="shared" si="18"/>
-        <v>21572.400000000001</v>
-      </c>
-      <c r="N72">
-        <v>1.5</v>
-      </c>
-      <c r="O72">
+        <v>59884.999999999993</v>
+      </c>
+      <c r="P72">
+        <v>2</v>
+      </c>
+      <c r="Q72">
         <f t="shared" si="19"/>
-        <v>26358.6</v>
-      </c>
-      <c r="P72">
-        <v>2</v>
-      </c>
-      <c r="Q72">
-        <f t="shared" si="20"/>
-        <v>31144.799999999999</v>
+        <v>73180</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>85</v>
-      </c>
-      <c r="B73">
-        <v>25</v>
-      </c>
-      <c r="G73">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I73">
         <f t="shared" si="16"/>
-        <v>13294.999999999998</v>
+        <v>0</v>
       </c>
       <c r="J73">
         <v>1</v>
       </c>
       <c r="K73">
-        <f t="shared" si="17"/>
-        <v>31295</v>
+        <f t="shared" ref="K73:K136" si="20">I73*J73+C73*$C$17+D73*$D$17+E73*$E$17+F73*$F$17+G73*$G$17+H73*$H$17</f>
+        <v>0</v>
       </c>
       <c r="L73">
         <v>1</v>
       </c>
       <c r="M73">
-        <f t="shared" si="18"/>
-        <v>31295</v>
+        <v>25000</v>
       </c>
       <c r="N73">
         <v>1.5</v>
       </c>
       <c r="O73">
-        <f t="shared" si="19"/>
-        <v>37942.5</v>
+        <v>37500</v>
       </c>
       <c r="P73">
         <v>2</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="20"/>
-        <v>44590</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G74">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I74">
-        <f t="shared" si="16"/>
-        <v>5318</v>
+        <f t="shared" ref="I74:I93" si="21">B74*$B$17</f>
+        <v>6381.5999999999995</v>
       </c>
       <c r="J74">
         <v>1</v>
       </c>
       <c r="K74">
-        <f t="shared" si="17"/>
-        <v>16118</v>
+        <f t="shared" ref="K74:K93" si="22">I74*J74+C74*$C$17+D74*$D$17+E74*$E$17+F74*$F$17+G74*$G$17+H74*$H$17</f>
+        <v>9981.5999999999985</v>
       </c>
       <c r="L74">
         <v>1</v>
       </c>
       <c r="M74">
-        <f t="shared" si="18"/>
-        <v>16118</v>
+        <f>I74*J74*L74+C74*$C$17+D74*$D$17+E74*$E$17+F74*$F$17+G74*$G$17+H74*$H$17</f>
+        <v>9981.5999999999985</v>
       </c>
       <c r="N74">
         <v>1.5</v>
       </c>
       <c r="O74">
-        <f t="shared" si="19"/>
-        <v>18777</v>
+        <f>I74*J74*N74+C74*$C$17+D74*$D$17+E74*$E$17+F74*$F$17+G74*$G$17+H74*$H$17</f>
+        <v>13172.4</v>
       </c>
       <c r="P74">
         <v>2</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="20"/>
-        <v>21436</v>
+        <f>I74*J74*P74+C74*$C$17+D74*$D$17+E74*$E$17+F74*$F$17+G74*$G$17+H74*$H$17</f>
+        <v>16363.199999999999</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G75">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I75">
-        <f t="shared" si="16"/>
-        <v>7445.1999999999989</v>
+        <f t="shared" si="21"/>
+        <v>6381.5999999999995</v>
       </c>
       <c r="J75">
         <v>1</v>
       </c>
       <c r="K75">
-        <f t="shared" si="17"/>
-        <v>29945.199999999997</v>
+        <f t="shared" si="22"/>
+        <v>11781.599999999999</v>
       </c>
       <c r="L75">
         <v>1</v>
       </c>
       <c r="M75">
-        <f t="shared" si="18"/>
-        <v>29945.199999999997</v>
+        <f t="shared" ref="M75:M94" si="23">I75*J75*L75+C75*$C$17+D75*$D$17+E75*$E$17+F75*$F$17+G75*$G$17+H75*$H$17</f>
+        <v>11781.599999999999</v>
       </c>
       <c r="N75">
         <v>1.5</v>
       </c>
       <c r="O75">
-        <f t="shared" si="19"/>
-        <v>33667.800000000003</v>
+        <f t="shared" ref="O75:O93" si="24">I75*J75*N75+C75*$C$17+D75*$D$17+E75*$E$17+F75*$F$17+G75*$G$17+H75*$H$17</f>
+        <v>14972.4</v>
       </c>
       <c r="P75">
         <v>2</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="20"/>
-        <v>37390.399999999994</v>
+        <f t="shared" ref="Q75:Q93" si="25">I75*J75*P75+C75*$C$17+D75*$D$17+E75*$E$17+F75*$F$17+G75*$G$17+H75*$H$17</f>
+        <v>18163.199999999997</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G76">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="I76">
-        <f t="shared" si="16"/>
-        <v>11167.8</v>
+        <f t="shared" si="21"/>
+        <v>5318</v>
       </c>
       <c r="J76">
         <v>1</v>
       </c>
       <c r="K76">
-        <f t="shared" si="17"/>
-        <v>40867.800000000003</v>
+        <f t="shared" si="22"/>
+        <v>14318</v>
       </c>
       <c r="L76">
         <v>1</v>
       </c>
       <c r="M76">
-        <f t="shared" si="18"/>
-        <v>40867.800000000003</v>
+        <f t="shared" si="23"/>
+        <v>14318</v>
       </c>
       <c r="N76">
         <v>1.5</v>
       </c>
       <c r="O76">
-        <f t="shared" si="19"/>
-        <v>46451.7</v>
+        <f t="shared" si="24"/>
+        <v>16977</v>
       </c>
       <c r="P76">
         <v>2</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="20"/>
-        <v>52035.6</v>
+        <f t="shared" si="25"/>
+        <v>19636</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I77">
-        <f t="shared" si="16"/>
-        <v>10636</v>
+        <f t="shared" si="21"/>
+        <v>9572.4</v>
       </c>
       <c r="J77">
         <v>1</v>
       </c>
       <c r="K77">
-        <f t="shared" si="17"/>
-        <v>10936</v>
+        <f t="shared" si="22"/>
+        <v>21572.400000000001</v>
       </c>
       <c r="L77">
         <v>1</v>
       </c>
       <c r="M77">
-        <f t="shared" si="18"/>
-        <v>10936</v>
+        <f t="shared" si="23"/>
+        <v>21572.400000000001</v>
       </c>
       <c r="N77">
         <v>1.5</v>
       </c>
       <c r="O77">
-        <f t="shared" si="19"/>
-        <v>16254</v>
+        <f t="shared" si="24"/>
+        <v>26358.6</v>
       </c>
       <c r="P77">
         <v>2</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="20"/>
-        <v>21572</v>
+        <f t="shared" si="25"/>
+        <v>31144.799999999999</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="I78">
-        <f t="shared" si="16"/>
-        <v>7976.9999999999991</v>
+        <f t="shared" si="21"/>
+        <v>13294.999999999998</v>
       </c>
       <c r="J78">
         <v>1</v>
       </c>
       <c r="K78">
-        <f t="shared" si="17"/>
-        <v>8277</v>
+        <f t="shared" si="22"/>
+        <v>31295</v>
       </c>
       <c r="L78">
         <v>1</v>
       </c>
       <c r="M78">
-        <f t="shared" si="18"/>
-        <v>8277</v>
+        <f t="shared" si="23"/>
+        <v>31295</v>
       </c>
       <c r="N78">
         <v>1.5</v>
       </c>
       <c r="O78">
-        <f t="shared" si="19"/>
-        <v>12265.499999999998</v>
+        <f t="shared" si="24"/>
+        <v>37942.5</v>
       </c>
       <c r="P78">
         <v>2</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="20"/>
-        <v>16253.999999999998</v>
+        <f t="shared" si="25"/>
+        <v>44590</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>18</v>
-      </c>
-      <c r="E79">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G79">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="I79">
-        <f t="shared" si="16"/>
-        <v>9572.4</v>
+        <f t="shared" si="21"/>
+        <v>5318</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
       <c r="K79">
-        <f t="shared" si="17"/>
-        <v>39772.400000000001</v>
+        <f t="shared" si="22"/>
+        <v>16118</v>
       </c>
       <c r="L79">
         <v>1</v>
       </c>
       <c r="M79">
-        <f t="shared" si="18"/>
-        <v>39772.400000000001</v>
+        <f t="shared" si="23"/>
+        <v>16118</v>
       </c>
       <c r="N79">
         <v>1.5</v>
       </c>
       <c r="O79">
-        <f t="shared" si="19"/>
-        <v>44558.6</v>
+        <f t="shared" si="24"/>
+        <v>18777</v>
       </c>
       <c r="P79">
         <v>2</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="20"/>
-        <v>49344.800000000003</v>
+        <f t="shared" si="25"/>
+        <v>21436</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="I80">
-        <f t="shared" si="16"/>
-        <v>10636</v>
+        <f t="shared" si="21"/>
+        <v>7445.1999999999989</v>
       </c>
       <c r="J80">
         <v>1</v>
       </c>
       <c r="K80">
-        <f t="shared" si="17"/>
-        <v>11236</v>
+        <f t="shared" si="22"/>
+        <v>29945.199999999997</v>
       </c>
       <c r="L80">
         <v>1</v>
       </c>
       <c r="M80">
-        <f t="shared" si="18"/>
-        <v>11236</v>
+        <f t="shared" si="23"/>
+        <v>29945.199999999997</v>
       </c>
       <c r="N80">
         <v>1.5</v>
       </c>
       <c r="O80">
-        <f t="shared" si="19"/>
-        <v>16554</v>
+        <f t="shared" si="24"/>
+        <v>33667.800000000003</v>
       </c>
       <c r="P80">
         <v>2</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="20"/>
-        <v>21872</v>
+        <f t="shared" si="25"/>
+        <v>37390.399999999994</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I81">
-        <f t="shared" si="16"/>
-        <v>13294.999999999998</v>
+        <f t="shared" si="21"/>
+        <v>11167.8</v>
       </c>
       <c r="J81">
         <v>1</v>
       </c>
       <c r="K81">
-        <f t="shared" si="17"/>
-        <v>13594.999999999998</v>
+        <f t="shared" si="22"/>
+        <v>40867.800000000003</v>
       </c>
       <c r="L81">
         <v>1</v>
       </c>
       <c r="M81">
-        <f t="shared" si="18"/>
-        <v>13594.999999999998</v>
+        <f t="shared" si="23"/>
+        <v>40867.800000000003</v>
       </c>
       <c r="N81">
         <v>1.5</v>
       </c>
       <c r="O81">
-        <f t="shared" si="19"/>
-        <v>20242.499999999996</v>
+        <f t="shared" si="24"/>
+        <v>46451.7</v>
       </c>
       <c r="P81">
         <v>2</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="20"/>
-        <v>26889.999999999996</v>
+        <f t="shared" si="25"/>
+        <v>52035.6</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <f t="shared" si="16"/>
-        <v>13294.999999999998</v>
+        <f t="shared" si="21"/>
+        <v>10636</v>
       </c>
       <c r="J82">
         <v>1</v>
       </c>
       <c r="K82">
-        <f t="shared" si="17"/>
-        <v>14494.999999999998</v>
+        <f t="shared" si="22"/>
+        <v>10936</v>
       </c>
       <c r="L82">
         <v>1</v>
       </c>
       <c r="M82">
-        <f t="shared" si="18"/>
-        <v>14494.999999999998</v>
+        <f t="shared" si="23"/>
+        <v>10936</v>
       </c>
       <c r="N82">
         <v>1.5</v>
       </c>
       <c r="O82">
-        <f t="shared" si="19"/>
-        <v>21142.499999999996</v>
+        <f t="shared" si="24"/>
+        <v>16254</v>
       </c>
       <c r="P82">
         <v>2</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="20"/>
-        <v>27789.999999999996</v>
+        <f t="shared" si="25"/>
+        <v>21572</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G83">
-        <v>297</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <f t="shared" si="16"/>
-        <v>13294.999999999998</v>
+        <f t="shared" si="21"/>
+        <v>7976.9999999999991</v>
       </c>
       <c r="J83">
         <v>1</v>
       </c>
       <c r="K83">
-        <f t="shared" si="17"/>
-        <v>102395</v>
+        <f t="shared" si="22"/>
+        <v>8277</v>
       </c>
       <c r="L83">
         <v>1</v>
       </c>
       <c r="M83">
-        <f t="shared" si="18"/>
-        <v>102395</v>
+        <f t="shared" si="23"/>
+        <v>8277</v>
       </c>
       <c r="N83">
         <v>1.5</v>
       </c>
       <c r="O83">
-        <f t="shared" si="19"/>
-        <v>109042.5</v>
+        <f t="shared" si="24"/>
+        <v>12265.499999999998</v>
       </c>
       <c r="P83">
         <v>2</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="20"/>
-        <v>115690</v>
+        <f t="shared" si="25"/>
+        <v>16253.999999999998</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>96</v>
+        <v>91</v>
+      </c>
+      <c r="B84">
+        <v>18</v>
+      </c>
+      <c r="E84">
+        <v>8</v>
+      </c>
+      <c r="G84">
+        <v>90</v>
       </c>
       <c r="I84">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>9572.4</v>
       </c>
       <c r="J84">
         <v>1</v>
       </c>
       <c r="K84">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>39772.400000000001</v>
       </c>
       <c r="L84">
         <v>1</v>
       </c>
       <c r="M84">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>39772.400000000001</v>
       </c>
       <c r="N84">
         <v>1.5</v>
       </c>
       <c r="O84">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>44558.6</v>
       </c>
       <c r="P84">
         <v>2</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>49344.800000000003</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="B85">
+        <v>20</v>
+      </c>
+      <c r="G85">
+        <v>2</v>
       </c>
       <c r="I85">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>10636</v>
       </c>
       <c r="J85">
         <v>1</v>
       </c>
       <c r="K85">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>11236</v>
       </c>
       <c r="L85">
         <v>1</v>
       </c>
       <c r="M85">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>11236</v>
       </c>
       <c r="N85">
         <v>1.5</v>
       </c>
       <c r="O85">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>16554</v>
       </c>
       <c r="P85">
         <v>2</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>21872</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>98</v>
+        <v>93</v>
+      </c>
+      <c r="B86">
+        <v>25</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
       </c>
       <c r="I86">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>13294.999999999998</v>
       </c>
       <c r="J86">
         <v>1</v>
       </c>
       <c r="K86">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>13594.999999999998</v>
       </c>
       <c r="L86">
         <v>1</v>
       </c>
       <c r="M86">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>13594.999999999998</v>
       </c>
       <c r="N86">
         <v>1.5</v>
       </c>
       <c r="O86">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>20242.499999999996</v>
       </c>
       <c r="P86">
         <v>2</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>26889.999999999996</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>99</v>
+        <v>94</v>
+      </c>
+      <c r="B87">
+        <v>25</v>
+      </c>
+      <c r="G87">
+        <v>4</v>
       </c>
       <c r="I87">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>13294.999999999998</v>
       </c>
       <c r="J87">
         <v>1</v>
       </c>
       <c r="K87">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>14494.999999999998</v>
       </c>
       <c r="L87">
         <v>1</v>
       </c>
       <c r="M87">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>14494.999999999998</v>
       </c>
       <c r="N87">
         <v>1.5</v>
       </c>
       <c r="O87">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>21142.499999999996</v>
       </c>
       <c r="P87">
         <v>2</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>27789.999999999996</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A88">
+        <v>95</v>
+      </c>
+      <c r="B88">
+        <v>25</v>
+      </c>
+      <c r="G88">
+        <v>297</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="21"/>
+        <v>13294.999999999998</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="22"/>
+        <v>102395</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="23"/>
+        <v>102395</v>
+      </c>
+      <c r="N88">
+        <v>1.5</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="24"/>
+        <v>109042.5</v>
+      </c>
+      <c r="P88">
+        <v>2</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>115690</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>96</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>1.5</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>2</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>97</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>1.5</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>2</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>98</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>1.5</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>2</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>99</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>1.5</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>2</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A93">
         <v>100</v>
       </c>
-      <c r="I88">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-      <c r="K88">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <v>1</v>
-      </c>
-      <c r="M88">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N88">
-        <v>1.5</v>
-      </c>
-      <c r="O88">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="P88">
-        <v>2</v>
-      </c>
-      <c r="Q88">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="K89">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M89">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="K90">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="K91">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="K92">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
       <c r="K93">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>1.5</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>2</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.15">
       <c r="K94">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.15">
       <c r="K95">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.15">
       <c r="K96">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K99">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K100">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K101">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K102">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K103">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K107">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K108">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K109">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K111">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K112">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K114">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K115">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K116">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K117">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K121">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K122">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K123">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K124">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K125">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K126">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K128">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K129">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K130">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K131">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K132">
-        <f t="shared" ref="K132:K195" si="21">I132*J132+C132*$C$17+D132*$D$17+E132*$E$17+F132*$F$17+G132*$G$17+H132*$H$17</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K133">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K134">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K135">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K136">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K137">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="K137:K200" si="26">I137*J137+C137*$C$17+D137*$D$17+E137*$E$17+F137*$F$17+G137*$G$17+H137*$H$17</f>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K138">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K139">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K140">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K141">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K142">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K143">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K144">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K145">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K146">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K147">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K148">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K149">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K150">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K151">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K152">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K153">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K154">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K155">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K156">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K157">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K158">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K159">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K160">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K161">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K162">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K163">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K164">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K165">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K166">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K167">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K168">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K169">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K170">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K171">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K172">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K173">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K174">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K175">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K176">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K177">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K178">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K179">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K180">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K181">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K182">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K183">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K184">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K185">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K186">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K187">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K188">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K189">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K190">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K191">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K192">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K193">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K194">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K195">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K196">
-        <f t="shared" ref="K196:K259" si="22">I196*J196+C196*$C$17+D196*$D$17+E196*$E$17+F196*$F$17+G196*$G$17+H196*$H$17</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K197">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K198">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K199">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K200">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K201">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="K201:K264" si="27">I201*J201+C201*$C$17+D201*$D$17+E201*$E$17+F201*$F$17+G201*$G$17+H201*$H$17</f>
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K202">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K203">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K204">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K205">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K206">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K207">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K208">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K209">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K210">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K211">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K212">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K213">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K214">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K215">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K216">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K217">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K218">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K219">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K220">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K221">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K222">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K223">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K224">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K225">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K226">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K227">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K228">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K229">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K230">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K231">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K232">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K233">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K234">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K235">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K236">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K237">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K238">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K239">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K240">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K241">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K242">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K243">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K244">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K245">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K246">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K247">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K248">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K249">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="250" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K250">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="251" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K251">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K252">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="253" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K253">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="254" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K254">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K255">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="256" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K256">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K257">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K258">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="259" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K259">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K260">
-        <f t="shared" ref="K260:K323" si="23">I260*J260+C260*$C$17+D260*$D$17+E260*$E$17+F260*$F$17+G260*$G$17+H260*$H$17</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="261" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K261">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="262" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K262">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K263">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K264">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K265">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="K265:K328" si="28">I265*J265+C265*$C$17+D265*$D$17+E265*$E$17+F265*$F$17+G265*$G$17+H265*$H$17</f>
         <v>0</v>
       </c>
     </row>
     <row r="266" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K266">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="267" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K267">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K268">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="269" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K269">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K270">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="271" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K271">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="272" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K272">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K273">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="274" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K274">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K275">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="276" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K276">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="277" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K277">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="278" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K278">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="279" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K279">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="280" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K280">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="281" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K281">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="282" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K282">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="283" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K283">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="284" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K284">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="285" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K285">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="286" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K286">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="287" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K287">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="288" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K288">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="289" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K289">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="290" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K290">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="291" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K291">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="292" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K292">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="293" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K293">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="294" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K294">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="295" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K295">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="296" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K296">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="297" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K297">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="298" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K298">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="299" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K299">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="300" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K300">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="301" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K301">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="302" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K302">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="303" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K303">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="304" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K304">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="305" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K305">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="306" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K306">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="307" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K307">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="308" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K308">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="309" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K309">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="310" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K310">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="311" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K311">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="312" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K312">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="313" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K313">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="314" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K314">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="315" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K315">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="316" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K316">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="317" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K317">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="318" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K318">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="319" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K319">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="320" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K320">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="321" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K321">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="322" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K322">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="323" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K323">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="324" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K324">
-        <f t="shared" ref="K324:K325" si="24">I324*J324+C324*$C$17+D324*$D$17+E324*$E$17+F324*$F$17+G324*$G$17+H324*$H$17</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="325" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K325">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K326">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K327">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K328">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K329">
+        <f t="shared" ref="K329:K330" si="29">I329*J329+C329*$C$17+D329*$D$17+E329*$E$17+F329*$F$17+G329*$G$17+H329*$H$17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K330">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Document/分数统计.xlsx
+++ b/Document/分数统计.xlsx
@@ -445,10 +445,10 @@
   <dimension ref="A1:V330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="17" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="17" topLeftCell="G39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -1968,53 +1968,53 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B46">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C46">
         <v>8</v>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I46">
         <f t="shared" si="12"/>
-        <v>22335.599999999999</v>
+        <v>17017.599999999999</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
       <c r="K46">
         <f t="shared" si="7"/>
-        <v>27935.599999999999</v>
+        <v>27417.599999999999</v>
       </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="M46">
         <f t="shared" si="13"/>
-        <v>27935.599999999999</v>
+        <v>27417.599999999999</v>
       </c>
       <c r="N46">
         <v>1.5</v>
       </c>
       <c r="O46">
         <f t="shared" si="14"/>
-        <v>39103.399999999994</v>
+        <v>35926.399999999994</v>
       </c>
       <c r="P46">
         <v>2</v>
       </c>
       <c r="Q46">
         <f t="shared" si="15"/>
-        <v>50271.199999999997</v>
+        <v>44435.199999999997</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B47">
         <v>40</v>
@@ -2023,7 +2023,7 @@
         <v>4</v>
       </c>
       <c r="E47">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I47">
         <f t="shared" si="12"/>
@@ -2034,28 +2034,28 @@
       </c>
       <c r="K47">
         <f t="shared" si="7"/>
-        <v>30872</v>
+        <v>34472</v>
       </c>
       <c r="L47">
         <v>1</v>
       </c>
       <c r="M47">
         <f t="shared" si="13"/>
-        <v>30872</v>
+        <v>34472</v>
       </c>
       <c r="N47">
         <v>1.5</v>
       </c>
       <c r="O47">
         <f t="shared" si="14"/>
-        <v>41508</v>
+        <v>45108</v>
       </c>
       <c r="P47">
         <v>2</v>
       </c>
       <c r="Q47">
         <f t="shared" si="15"/>
-        <v>52144</v>
+        <v>55744</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.15">
@@ -2284,45 +2284,45 @@
         <v>60</v>
       </c>
       <c r="B53">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D53">
         <v>4</v>
       </c>
       <c r="H53">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I53">
         <f t="shared" si="12"/>
-        <v>26589.999999999996</v>
+        <v>21272</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
       <c r="K53">
         <f t="shared" si="7"/>
-        <v>35390</v>
+        <v>34872</v>
       </c>
       <c r="L53">
         <v>1</v>
       </c>
       <c r="M53">
         <f t="shared" si="13"/>
-        <v>35390</v>
+        <v>34872</v>
       </c>
       <c r="N53">
         <v>1.5</v>
       </c>
       <c r="O53">
         <f t="shared" si="14"/>
-        <v>48684.999999999993</v>
+        <v>45508</v>
       </c>
       <c r="P53">
         <v>2</v>
       </c>
       <c r="Q53">
         <f t="shared" si="15"/>
-        <v>61979.999999999993</v>
+        <v>56144</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.15">
@@ -2330,7 +2330,7 @@
         <v>61</v>
       </c>
       <c r="B54">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C54">
         <v>30</v>
@@ -2339,39 +2339,39 @@
         <v>9</v>
       </c>
       <c r="H54">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I54">
         <f t="shared" si="12"/>
-        <v>26589.999999999996</v>
+        <v>21272</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="K54">
         <f t="shared" si="7"/>
-        <v>42190</v>
+        <v>42872</v>
       </c>
       <c r="L54">
         <v>1</v>
       </c>
       <c r="M54">
         <f t="shared" si="13"/>
-        <v>42190</v>
+        <v>42872</v>
       </c>
       <c r="N54">
         <v>1.5</v>
       </c>
       <c r="O54">
         <f t="shared" si="14"/>
-        <v>55484.999999999993</v>
+        <v>53508</v>
       </c>
       <c r="P54">
         <v>2</v>
       </c>
       <c r="Q54">
         <f t="shared" si="15"/>
-        <v>68780</v>
+        <v>64144</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.15">

--- a/Document/分数统计.xlsx
+++ b/Document/分数统计.xlsx
@@ -445,10 +445,10 @@
   <dimension ref="A1:V330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="17" topLeftCell="G39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="17" topLeftCell="B72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="R54" sqref="R54"/>
+      <selection pane="bottomRight" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -2499,10 +2499,10 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B58">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C58">
         <v>136</v>
@@ -2512,78 +2512,78 @@
       </c>
       <c r="I58">
         <f t="shared" si="12"/>
-        <v>26589.999999999996</v>
+        <v>23930.999999999996</v>
       </c>
       <c r="J58">
         <v>1</v>
       </c>
       <c r="K58">
         <f t="shared" si="7"/>
-        <v>56190</v>
+        <v>53531</v>
       </c>
       <c r="L58">
         <v>1</v>
       </c>
       <c r="M58">
         <f t="shared" si="13"/>
-        <v>56190</v>
+        <v>53531</v>
       </c>
       <c r="N58">
         <v>1.5</v>
       </c>
       <c r="O58">
         <f t="shared" si="14"/>
-        <v>69485</v>
+        <v>65496.499999999993</v>
       </c>
       <c r="P58">
         <v>2</v>
       </c>
       <c r="Q58">
         <f t="shared" si="15"/>
-        <v>82780</v>
+        <v>77462</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B59">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D59">
         <v>4</v>
       </c>
       <c r="I59">
         <f t="shared" si="12"/>
-        <v>21272</v>
+        <v>15953.999999999998</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="K59">
         <f t="shared" si="7"/>
-        <v>25272</v>
+        <v>19954</v>
       </c>
       <c r="L59">
         <v>1</v>
       </c>
       <c r="M59">
         <f t="shared" si="13"/>
-        <v>25272</v>
+        <v>19954</v>
       </c>
       <c r="N59">
         <v>1.5</v>
       </c>
       <c r="O59">
         <f t="shared" si="14"/>
-        <v>35908</v>
+        <v>27930.999999999996</v>
       </c>
       <c r="P59">
         <v>2</v>
       </c>
       <c r="Q59">
         <f t="shared" si="15"/>
-        <v>46544</v>
+        <v>35908</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.15">
@@ -2680,48 +2680,48 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B62">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C62">
+        <v>30</v>
+      </c>
+      <c r="H62">
         <v>26</v>
-      </c>
-      <c r="H62">
-        <v>13</v>
       </c>
       <c r="I62">
         <f t="shared" si="12"/>
-        <v>13294.999999999998</v>
+        <v>11699.599999999999</v>
       </c>
       <c r="J62">
         <v>1</v>
       </c>
       <c r="K62">
         <f t="shared" si="7"/>
-        <v>23695</v>
+        <v>28099.599999999999</v>
       </c>
       <c r="L62">
         <v>1</v>
       </c>
       <c r="M62">
         <f t="shared" si="13"/>
-        <v>23695</v>
+        <v>28099.599999999999</v>
       </c>
       <c r="N62">
         <v>1.5</v>
       </c>
       <c r="O62">
         <f t="shared" si="14"/>
-        <v>30342.499999999996</v>
+        <v>33949.399999999994</v>
       </c>
       <c r="P62">
         <v>2</v>
       </c>
       <c r="Q62">
         <f t="shared" si="15"/>
-        <v>36990</v>
+        <v>39799.199999999997</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.15">
@@ -2729,7 +2729,7 @@
         <v>70</v>
       </c>
       <c r="B63">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C63">
         <v>56</v>
@@ -2739,35 +2739,35 @@
       </c>
       <c r="I63">
         <f t="shared" si="12"/>
-        <v>23930.999999999996</v>
+        <v>21272</v>
       </c>
       <c r="J63">
         <v>1</v>
       </c>
       <c r="K63">
         <f t="shared" si="7"/>
-        <v>36731</v>
+        <v>34072</v>
       </c>
       <c r="L63">
         <v>1</v>
       </c>
       <c r="M63">
         <f t="shared" si="13"/>
-        <v>36731</v>
+        <v>34072</v>
       </c>
       <c r="N63">
         <v>1.5</v>
       </c>
       <c r="O63">
         <f t="shared" si="14"/>
-        <v>48696.499999999993</v>
+        <v>44708</v>
       </c>
       <c r="P63">
         <v>2</v>
       </c>
       <c r="Q63">
         <f t="shared" si="15"/>
-        <v>60661.999999999993</v>
+        <v>55344</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.15">
@@ -2821,45 +2821,45 @@
         <v>72</v>
       </c>
       <c r="B65">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H65">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="I65">
         <f t="shared" si="12"/>
-        <v>23930.999999999996</v>
+        <v>21272</v>
       </c>
       <c r="J65">
         <v>1</v>
       </c>
       <c r="K65">
         <f t="shared" si="7"/>
-        <v>32730.999999999996</v>
+        <v>38872</v>
       </c>
       <c r="L65">
         <v>1</v>
       </c>
       <c r="M65">
         <f t="shared" si="13"/>
-        <v>32730.999999999996</v>
+        <v>38872</v>
       </c>
       <c r="N65">
         <v>1.5</v>
       </c>
       <c r="O65">
         <f t="shared" si="14"/>
-        <v>44696.499999999993</v>
+        <v>49508</v>
       </c>
       <c r="P65">
         <v>2</v>
       </c>
       <c r="Q65">
         <f t="shared" si="15"/>
-        <v>56661.999999999993</v>
+        <v>60144</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.15">
@@ -2910,45 +2910,45 @@
         <v>74</v>
       </c>
       <c r="B67">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D67">
         <v>10</v>
       </c>
       <c r="H67">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I67">
         <f t="shared" si="16"/>
-        <v>18613</v>
+        <v>17549.399999999998</v>
       </c>
       <c r="J67">
         <v>1</v>
       </c>
       <c r="K67">
         <f t="shared" si="7"/>
-        <v>31813</v>
+        <v>33949.399999999994</v>
       </c>
       <c r="L67">
         <v>1</v>
       </c>
       <c r="M67">
         <f t="shared" si="17"/>
-        <v>31813</v>
+        <v>33949.399999999994</v>
       </c>
       <c r="N67">
         <v>1.5</v>
       </c>
       <c r="O67">
         <f t="shared" si="18"/>
-        <v>41119.5</v>
+        <v>42724.1</v>
       </c>
       <c r="P67">
         <v>2</v>
       </c>
       <c r="Q67">
         <f t="shared" si="19"/>
-        <v>50426</v>
+        <v>51498.799999999996</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.15">
@@ -3042,42 +3042,42 @@
         <v>77</v>
       </c>
       <c r="B70">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C70">
         <v>18</v>
       </c>
       <c r="I70">
         <f t="shared" si="16"/>
-        <v>26589.999999999996</v>
+        <v>23930.999999999996</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K70">
         <f t="shared" si="7"/>
-        <v>30189.999999999996</v>
+        <v>17958.599999999999</v>
       </c>
       <c r="L70">
         <v>1</v>
       </c>
       <c r="M70">
         <f t="shared" si="17"/>
-        <v>30189.999999999996</v>
+        <v>17958.599999999999</v>
       </c>
       <c r="N70">
         <v>1.5</v>
       </c>
       <c r="O70">
         <f t="shared" si="18"/>
-        <v>43484.999999999993</v>
+        <v>25137.899999999994</v>
       </c>
       <c r="P70">
         <v>2</v>
       </c>
       <c r="Q70">
         <f t="shared" si="19"/>
-        <v>56779.999999999993</v>
+        <v>32317.199999999993</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.15">
@@ -3125,51 +3125,51 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B72">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C72">
         <v>78</v>
       </c>
       <c r="E72">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H72">
         <v>3</v>
       </c>
       <c r="I72">
         <f t="shared" si="16"/>
-        <v>26589.999999999996</v>
+        <v>23930.999999999996</v>
       </c>
       <c r="J72">
         <v>1</v>
       </c>
       <c r="K72">
         <f>I72*J72+C72*$C$17+D72*$D$17+E72*$E$17+F72*$F$17+G72*$G$17+H72*$H$17</f>
-        <v>46590</v>
+        <v>47931</v>
       </c>
       <c r="L72">
         <v>1</v>
       </c>
       <c r="M72">
         <f t="shared" si="17"/>
-        <v>46590</v>
+        <v>47931</v>
       </c>
       <c r="N72">
         <v>1.5</v>
       </c>
       <c r="O72">
         <f t="shared" si="18"/>
-        <v>59884.999999999993</v>
+        <v>59896.499999999993</v>
       </c>
       <c r="P72">
         <v>2</v>
       </c>
       <c r="Q72">
         <f t="shared" si="19"/>
-        <v>73180</v>
+        <v>71862</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.15">
